--- a/assets/xls/NAT/47.xlsx
+++ b/assets/xls/NAT/47.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Form45\assets\xls\NAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\form45\assets\xls\NAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92735632-D8B6-40DB-B663-FED85CA62FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0B7C6D-59EC-4AF9-85AD-DF1AA225C124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="741">
   <si>
     <r>
       <rPr>
@@ -3484,13 +3484,1177 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>See the proof</t>
+  </si>
+  <si>
+    <t>NA47/NA47-1</t>
+  </si>
+  <si>
+    <t>NA47/NA47-2</t>
+  </si>
+  <si>
+    <t>NA47/NA47-3</t>
+  </si>
+  <si>
+    <t>NA47/NA47-4</t>
+  </si>
+  <si>
+    <t>NA47/NA47-5</t>
+  </si>
+  <si>
+    <t>NA47/NA47-6</t>
+  </si>
+  <si>
+    <t>NA47/NA47-7</t>
+  </si>
+  <si>
+    <t>NA47/NA47-8</t>
+  </si>
+  <si>
+    <t>NA47/NA47-9</t>
+  </si>
+  <si>
+    <t>NA47/NA47-10</t>
+  </si>
+  <si>
+    <t>NA47/NA47-11</t>
+  </si>
+  <si>
+    <t>NA47/NA47-12</t>
+  </si>
+  <si>
+    <t>NA47/NA47-13</t>
+  </si>
+  <si>
+    <t>NA47/NA47-14</t>
+  </si>
+  <si>
+    <t>NA47/NA47-15</t>
+  </si>
+  <si>
+    <t>NA47/NA47-16</t>
+  </si>
+  <si>
+    <t>NA47/NA47-17</t>
+  </si>
+  <si>
+    <t>NA47/NA47-18</t>
+  </si>
+  <si>
+    <t>NA47/NA47-19</t>
+  </si>
+  <si>
+    <t>NA47/NA47-20</t>
+  </si>
+  <si>
+    <t>NA47/NA47-21</t>
+  </si>
+  <si>
+    <t>NA47/NA47-22</t>
+  </si>
+  <si>
+    <t>NA47/NA47-23</t>
+  </si>
+  <si>
+    <t>NA47/NA47-24</t>
+  </si>
+  <si>
+    <t>NA47/NA47-25</t>
+  </si>
+  <si>
+    <t>NA47/NA47-26</t>
+  </si>
+  <si>
+    <t>NA47/NA47-27</t>
+  </si>
+  <si>
+    <t>NA47/NA47-28</t>
+  </si>
+  <si>
+    <t>NA47/NA47-29</t>
+  </si>
+  <si>
+    <t>NA47/NA47-30</t>
+  </si>
+  <si>
+    <t>NA47/NA47-31</t>
+  </si>
+  <si>
+    <t>NA47/NA47-32</t>
+  </si>
+  <si>
+    <t>NA47/NA47-33</t>
+  </si>
+  <si>
+    <t>NA47/NA47-34</t>
+  </si>
+  <si>
+    <t>NA47/NA47-35</t>
+  </si>
+  <si>
+    <t>NA47/NA47-36</t>
+  </si>
+  <si>
+    <t>NA47/NA47-37</t>
+  </si>
+  <si>
+    <t>NA47/NA47-38</t>
+  </si>
+  <si>
+    <t>NA47/NA47-39</t>
+  </si>
+  <si>
+    <t>NA47/NA47-40</t>
+  </si>
+  <si>
+    <t>NA47/NA47-41</t>
+  </si>
+  <si>
+    <t>NA47/NA47-42</t>
+  </si>
+  <si>
+    <t>NA47/NA47-43</t>
+  </si>
+  <si>
+    <t>NA47/NA47-44</t>
+  </si>
+  <si>
+    <t>NA47/NA47-45</t>
+  </si>
+  <si>
+    <t>NA47/NA47-46</t>
+  </si>
+  <si>
+    <t>NA47/NA47-47</t>
+  </si>
+  <si>
+    <t>NA47/NA47-48</t>
+  </si>
+  <si>
+    <t>NA47/NA47-49</t>
+  </si>
+  <si>
+    <t>NA47/NA47-50</t>
+  </si>
+  <si>
+    <t>NA47/NA47-51</t>
+  </si>
+  <si>
+    <t>NA47/NA47-52</t>
+  </si>
+  <si>
+    <t>NA47/NA47-53</t>
+  </si>
+  <si>
+    <t>NA47/NA47-54</t>
+  </si>
+  <si>
+    <t>NA47/NA47-55</t>
+  </si>
+  <si>
+    <t>NA47/NA47-56</t>
+  </si>
+  <si>
+    <t>NA47/NA47-57</t>
+  </si>
+  <si>
+    <t>NA47/NA47-58</t>
+  </si>
+  <si>
+    <t>NA47/NA47-59</t>
+  </si>
+  <si>
+    <t>NA47/NA47-60</t>
+  </si>
+  <si>
+    <t>NA47/NA47-61</t>
+  </si>
+  <si>
+    <t>NA47/NA47-62</t>
+  </si>
+  <si>
+    <t>NA47/NA47-63</t>
+  </si>
+  <si>
+    <t>NA47/NA47-64</t>
+  </si>
+  <si>
+    <t>NA47/NA47-65</t>
+  </si>
+  <si>
+    <t>NA47/NA47-66</t>
+  </si>
+  <si>
+    <t>NA47/NA47-67</t>
+  </si>
+  <si>
+    <t>NA47/NA47-68</t>
+  </si>
+  <si>
+    <t>NA47/NA47-69</t>
+  </si>
+  <si>
+    <t>NA47/NA47-70</t>
+  </si>
+  <si>
+    <t>NA47/NA47-71</t>
+  </si>
+  <si>
+    <t>NA47/NA47-72</t>
+  </si>
+  <si>
+    <t>NA47/NA47-73</t>
+  </si>
+  <si>
+    <t>NA47/NA47-74</t>
+  </si>
+  <si>
+    <t>NA47/NA47-75</t>
+  </si>
+  <si>
+    <t>NA47/NA47-76</t>
+  </si>
+  <si>
+    <t>NA47/NA47-77</t>
+  </si>
+  <si>
+    <t>NA47/NA47-78</t>
+  </si>
+  <si>
+    <t>NA47/NA47-79</t>
+  </si>
+  <si>
+    <t>NA47/NA47-80</t>
+  </si>
+  <si>
+    <t>NA47/NA47-81</t>
+  </si>
+  <si>
+    <t>NA47/NA47-82</t>
+  </si>
+  <si>
+    <t>NA47/NA47-83</t>
+  </si>
+  <si>
+    <t>NA47/NA47-84</t>
+  </si>
+  <si>
+    <t>NA47/NA47-85</t>
+  </si>
+  <si>
+    <t>NA47/NA47-86</t>
+  </si>
+  <si>
+    <t>NA47/NA47-87</t>
+  </si>
+  <si>
+    <t>NA47/NA47-88</t>
+  </si>
+  <si>
+    <t>NA47/NA47-89</t>
+  </si>
+  <si>
+    <t>NA47/NA47-90</t>
+  </si>
+  <si>
+    <t>NA47/NA47-91</t>
+  </si>
+  <si>
+    <t>NA47/NA47-92</t>
+  </si>
+  <si>
+    <t>NA47/NA47-93</t>
+  </si>
+  <si>
+    <t>NA47/NA47-94</t>
+  </si>
+  <si>
+    <t>NA47/NA47-95</t>
+  </si>
+  <si>
+    <t>NA47/NA47-96</t>
+  </si>
+  <si>
+    <t>NA47/NA47-97</t>
+  </si>
+  <si>
+    <t>NA47/NA47-98</t>
+  </si>
+  <si>
+    <t>NA47/NA47-99</t>
+  </si>
+  <si>
+    <t>NA47/NA47-100</t>
+  </si>
+  <si>
+    <t>NA47/NA47-101</t>
+  </si>
+  <si>
+    <t>NA47/NA47-102</t>
+  </si>
+  <si>
+    <t>NA47/NA47-103</t>
+  </si>
+  <si>
+    <t>NA47/NA47-104</t>
+  </si>
+  <si>
+    <t>NA47/NA47-105</t>
+  </si>
+  <si>
+    <t>NA47/NA47-106</t>
+  </si>
+  <si>
+    <t>NA47/NA47-107</t>
+  </si>
+  <si>
+    <t>NA47/NA47-108</t>
+  </si>
+  <si>
+    <t>NA47/NA47-109</t>
+  </si>
+  <si>
+    <t>NA47/NA47-110</t>
+  </si>
+  <si>
+    <t>NA47/NA47-111</t>
+  </si>
+  <si>
+    <t>NA47/NA47-112</t>
+  </si>
+  <si>
+    <t>NA47/NA47-113</t>
+  </si>
+  <si>
+    <t>NA47/NA47-114</t>
+  </si>
+  <si>
+    <t>NA47/NA47-115</t>
+  </si>
+  <si>
+    <t>NA47/NA47-116</t>
+  </si>
+  <si>
+    <t>NA47/NA47-117</t>
+  </si>
+  <si>
+    <t>NA47/NA47-118</t>
+  </si>
+  <si>
+    <t>NA47/NA47-119</t>
+  </si>
+  <si>
+    <t>NA47/NA47-120</t>
+  </si>
+  <si>
+    <t>NA47/NA47-121</t>
+  </si>
+  <si>
+    <t>NA47/NA47-122</t>
+  </si>
+  <si>
+    <t>NA47/NA47-123</t>
+  </si>
+  <si>
+    <t>NA47/NA47-124</t>
+  </si>
+  <si>
+    <t>NA47/NA47-125</t>
+  </si>
+  <si>
+    <t>NA47/NA47-126</t>
+  </si>
+  <si>
+    <t>NA47/NA47-127</t>
+  </si>
+  <si>
+    <t>NA47/NA47-128</t>
+  </si>
+  <si>
+    <t>NA47/NA47-129</t>
+  </si>
+  <si>
+    <t>NA47/NA47-130</t>
+  </si>
+  <si>
+    <t>NA47/NA47-131</t>
+  </si>
+  <si>
+    <t>NA47/NA47-132</t>
+  </si>
+  <si>
+    <t>NA47/NA47-133</t>
+  </si>
+  <si>
+    <t>NA47/NA47-134</t>
+  </si>
+  <si>
+    <t>NA47/NA47-135</t>
+  </si>
+  <si>
+    <t>NA47/NA47-136</t>
+  </si>
+  <si>
+    <t>NA47/NA47-137</t>
+  </si>
+  <si>
+    <t>NA47/NA47-138</t>
+  </si>
+  <si>
+    <t>NA47/NA47-139</t>
+  </si>
+  <si>
+    <t>NA47/NA47-140</t>
+  </si>
+  <si>
+    <t>NA47/NA47-141</t>
+  </si>
+  <si>
+    <t>NA47/NA47-142</t>
+  </si>
+  <si>
+    <t>NA47/NA47-143</t>
+  </si>
+  <si>
+    <t>NA47/NA47-144</t>
+  </si>
+  <si>
+    <t>NA47/NA47-145</t>
+  </si>
+  <si>
+    <t>NA47/NA47-146</t>
+  </si>
+  <si>
+    <t>NA47/NA47-147</t>
+  </si>
+  <si>
+    <t>NA47/NA47-148</t>
+  </si>
+  <si>
+    <t>NA47/NA47-149</t>
+  </si>
+  <si>
+    <t>NA47/NA47-150</t>
+  </si>
+  <si>
+    <t>NA47/NA47-151</t>
+  </si>
+  <si>
+    <t>NA47/NA47-152</t>
+  </si>
+  <si>
+    <t>NA47/NA47-153</t>
+  </si>
+  <si>
+    <t>NA47/NA47-154</t>
+  </si>
+  <si>
+    <t>NA47/NA47-155</t>
+  </si>
+  <si>
+    <t>NA47/NA47-156</t>
+  </si>
+  <si>
+    <t>NA47/NA47-157</t>
+  </si>
+  <si>
+    <t>NA47/NA47-158</t>
+  </si>
+  <si>
+    <t>NA47/NA47-159</t>
+  </si>
+  <si>
+    <t>NA47/NA47-160</t>
+  </si>
+  <si>
+    <t>NA47/NA47-161</t>
+  </si>
+  <si>
+    <t>NA47/NA47-162</t>
+  </si>
+  <si>
+    <t>NA47/NA47-163</t>
+  </si>
+  <si>
+    <t>NA47/NA47-164</t>
+  </si>
+  <si>
+    <t>NA47/NA47-165</t>
+  </si>
+  <si>
+    <t>NA47/NA47-166</t>
+  </si>
+  <si>
+    <t>NA47/NA47-167</t>
+  </si>
+  <si>
+    <t>NA47/NA47-168</t>
+  </si>
+  <si>
+    <t>NA47/NA47-169</t>
+  </si>
+  <si>
+    <t>NA47/NA47-170</t>
+  </si>
+  <si>
+    <t>NA47/NA47-171</t>
+  </si>
+  <si>
+    <t>NA47/NA47-172</t>
+  </si>
+  <si>
+    <t>NA47/NA47-173</t>
+  </si>
+  <si>
+    <t>NA47/NA47-174</t>
+  </si>
+  <si>
+    <t>NA47/NA47-175</t>
+  </si>
+  <si>
+    <t>NA47/NA47-176</t>
+  </si>
+  <si>
+    <t>NA47/NA47-177</t>
+  </si>
+  <si>
+    <t>NA47/NA47-178</t>
+  </si>
+  <si>
+    <t>NA47/NA47-179</t>
+  </si>
+  <si>
+    <t>NA47/NA47-180</t>
+  </si>
+  <si>
+    <t>NA47/NA47-181</t>
+  </si>
+  <si>
+    <t>NA47/NA47-182</t>
+  </si>
+  <si>
+    <t>NA47/NA47-183</t>
+  </si>
+  <si>
+    <t>NA47/NA47-184</t>
+  </si>
+  <si>
+    <t>NA47/NA47-185</t>
+  </si>
+  <si>
+    <t>NA47/NA47-186</t>
+  </si>
+  <si>
+    <t>NA47/NA47-187</t>
+  </si>
+  <si>
+    <t>NA47/NA47-188</t>
+  </si>
+  <si>
+    <t>NA47/NA47-189</t>
+  </si>
+  <si>
+    <t>NA47/NA47-190</t>
+  </si>
+  <si>
+    <t>NA47/NA47-191</t>
+  </si>
+  <si>
+    <t>NA47/NA47-192</t>
+  </si>
+  <si>
+    <t>NA47/NA47-193</t>
+  </si>
+  <si>
+    <t>NA47/NA47-194</t>
+  </si>
+  <si>
+    <t>NA47/NA47-195</t>
+  </si>
+  <si>
+    <t>NA47/NA47-196</t>
+  </si>
+  <si>
+    <t>NA47/NA47-197</t>
+  </si>
+  <si>
+    <t>NA47/NA47-198</t>
+  </si>
+  <si>
+    <t>NA47/NA47-199</t>
+  </si>
+  <si>
+    <t>NA47/NA47-200</t>
+  </si>
+  <si>
+    <t>NA47/NA47-201</t>
+  </si>
+  <si>
+    <t>NA47/NA47-202</t>
+  </si>
+  <si>
+    <t>NA47/NA47-203</t>
+  </si>
+  <si>
+    <t>NA47/NA47-204</t>
+  </si>
+  <si>
+    <t>NA47/NA47-205</t>
+  </si>
+  <si>
+    <t>NA47/NA47-206</t>
+  </si>
+  <si>
+    <t>NA47/NA47-207</t>
+  </si>
+  <si>
+    <t>NA47/NA47-208</t>
+  </si>
+  <si>
+    <t>NA47/NA47-209</t>
+  </si>
+  <si>
+    <t>NA47/NA47-210</t>
+  </si>
+  <si>
+    <t>NA47/NA47-211</t>
+  </si>
+  <si>
+    <t>NA47/NA47-212</t>
+  </si>
+  <si>
+    <t>NA47/NA47-213</t>
+  </si>
+  <si>
+    <t>NA47/NA47-214</t>
+  </si>
+  <si>
+    <t>NA47/NA47-215</t>
+  </si>
+  <si>
+    <t>NA47/NA47-216</t>
+  </si>
+  <si>
+    <t>NA47/NA47-217</t>
+  </si>
+  <si>
+    <t>NA47/NA47-218</t>
+  </si>
+  <si>
+    <t>NA47/NA47-219</t>
+  </si>
+  <si>
+    <t>NA47/NA47-220</t>
+  </si>
+  <si>
+    <t>NA47/NA47-221</t>
+  </si>
+  <si>
+    <t>NA47/NA47-222</t>
+  </si>
+  <si>
+    <t>NA47/NA47-223</t>
+  </si>
+  <si>
+    <t>NA47/NA47-224</t>
+  </si>
+  <si>
+    <t>NA47/NA47-225</t>
+  </si>
+  <si>
+    <t>NA47/NA47-226</t>
+  </si>
+  <si>
+    <t>NA47/NA47-227</t>
+  </si>
+  <si>
+    <t>NA47/NA47-228</t>
+  </si>
+  <si>
+    <t>NA47/NA47-229</t>
+  </si>
+  <si>
+    <t>NA47/NA47-230</t>
+  </si>
+  <si>
+    <t>NA47/NA47-231</t>
+  </si>
+  <si>
+    <t>NA47/NA47-232</t>
+  </si>
+  <si>
+    <t>NA47/NA47-233</t>
+  </si>
+  <si>
+    <t>NA47/NA47-234</t>
+  </si>
+  <si>
+    <t>NA47/NA47-235</t>
+  </si>
+  <si>
+    <t>NA47/NA47-236</t>
+  </si>
+  <si>
+    <t>NA47/NA47-237</t>
+  </si>
+  <si>
+    <t>NA47/NA47-238</t>
+  </si>
+  <si>
+    <t>NA47/NA47-239</t>
+  </si>
+  <si>
+    <t>NA47/NA47-240</t>
+  </si>
+  <si>
+    <t>NA47/NA47-241</t>
+  </si>
+  <si>
+    <t>NA47/NA47-242</t>
+  </si>
+  <si>
+    <t>NA47/NA47-243</t>
+  </si>
+  <si>
+    <t>NA47/NA47-244</t>
+  </si>
+  <si>
+    <t>NA47/NA47-245</t>
+  </si>
+  <si>
+    <t>NA47/NA47-246</t>
+  </si>
+  <si>
+    <t>NA47/NA47-247</t>
+  </si>
+  <si>
+    <t>NA47/NA47-248</t>
+  </si>
+  <si>
+    <t>NA47/NA47-249</t>
+  </si>
+  <si>
+    <t>NA47/NA47-250</t>
+  </si>
+  <si>
+    <t>NA47/NA47-251</t>
+  </si>
+  <si>
+    <t>NA47/NA47-252</t>
+  </si>
+  <si>
+    <t>NA47/NA47-253</t>
+  </si>
+  <si>
+    <t>NA47/NA47-254</t>
+  </si>
+  <si>
+    <t>NA47/NA47-255</t>
+  </si>
+  <si>
+    <t>NA47/NA47-256</t>
+  </si>
+  <si>
+    <t>NA47/NA47-257</t>
+  </si>
+  <si>
+    <t>NA47/NA47-258</t>
+  </si>
+  <si>
+    <t>NA47/NA47-259</t>
+  </si>
+  <si>
+    <t>NA47/NA47-260</t>
+  </si>
+  <si>
+    <t>NA47/NA47-261</t>
+  </si>
+  <si>
+    <t>NA47/NA47-262</t>
+  </si>
+  <si>
+    <t>NA47/NA47-263</t>
+  </si>
+  <si>
+    <t>NA47/NA47-264</t>
+  </si>
+  <si>
+    <t>NA47/NA47-265</t>
+  </si>
+  <si>
+    <t>NA47/NA47-266</t>
+  </si>
+  <si>
+    <t>NA47/NA47-267</t>
+  </si>
+  <si>
+    <t>NA47/NA47-268</t>
+  </si>
+  <si>
+    <t>NA47/NA47-269</t>
+  </si>
+  <si>
+    <t>NA47/NA47-270</t>
+  </si>
+  <si>
+    <t>NA47/NA47-271</t>
+  </si>
+  <si>
+    <t>NA47/NA47-272</t>
+  </si>
+  <si>
+    <t>NA47/NA47-273</t>
+  </si>
+  <si>
+    <t>NA47/NA47-274</t>
+  </si>
+  <si>
+    <t>NA47/NA47-275</t>
+  </si>
+  <si>
+    <t>NA47/NA47-276</t>
+  </si>
+  <si>
+    <t>NA47/NA47-277</t>
+  </si>
+  <si>
+    <t>NA47/NA47-278</t>
+  </si>
+  <si>
+    <t>NA47/NA47-279</t>
+  </si>
+  <si>
+    <t>NA47/NA47-280</t>
+  </si>
+  <si>
+    <t>NA47/NA47-281</t>
+  </si>
+  <si>
+    <t>NA47/NA47-282</t>
+  </si>
+  <si>
+    <t>NA47/NA47-283</t>
+  </si>
+  <si>
+    <t>NA47/NA47-284</t>
+  </si>
+  <si>
+    <t>NA47/NA47-285</t>
+  </si>
+  <si>
+    <t>NA47/NA47-286</t>
+  </si>
+  <si>
+    <t>NA47/NA47-287</t>
+  </si>
+  <si>
+    <t>NA47/NA47-288</t>
+  </si>
+  <si>
+    <t>NA47/NA47-289</t>
+  </si>
+  <si>
+    <t>NA47/NA47-290</t>
+  </si>
+  <si>
+    <t>NA47/NA47-291</t>
+  </si>
+  <si>
+    <t>NA47/NA47-292</t>
+  </si>
+  <si>
+    <t>NA47/NA47-293</t>
+  </si>
+  <si>
+    <t>NA47/NA47-294</t>
+  </si>
+  <si>
+    <t>NA47/NA47-295</t>
+  </si>
+  <si>
+    <t>NA47/NA47-296</t>
+  </si>
+  <si>
+    <t>NA47/NA47-297</t>
+  </si>
+  <si>
+    <t>NA47/NA47-298</t>
+  </si>
+  <si>
+    <t>NA47/NA47-299</t>
+  </si>
+  <si>
+    <t>NA47/NA47-300</t>
+  </si>
+  <si>
+    <t>NA47/NA47-301</t>
+  </si>
+  <si>
+    <t>NA47/NA47-302</t>
+  </si>
+  <si>
+    <t>NA47/NA47-303</t>
+  </si>
+  <si>
+    <t>NA47/NA47-304</t>
+  </si>
+  <si>
+    <t>NA47/NA47-305</t>
+  </si>
+  <si>
+    <t>NA47/NA47-306</t>
+  </si>
+  <si>
+    <t>NA47/NA47-307</t>
+  </si>
+  <si>
+    <t>NA47/NA47-308</t>
+  </si>
+  <si>
+    <t>NA47/NA47-309</t>
+  </si>
+  <si>
+    <t>NA47/NA47-310</t>
+  </si>
+  <si>
+    <t>NA47/NA47-311</t>
+  </si>
+  <si>
+    <t>NA47/NA47-312</t>
+  </si>
+  <si>
+    <t>NA47/NA47-313</t>
+  </si>
+  <si>
+    <t>NA47/NA47-314</t>
+  </si>
+  <si>
+    <t>NA47/NA47-315</t>
+  </si>
+  <si>
+    <t>NA47/NA47-316</t>
+  </si>
+  <si>
+    <t>NA47/NA47-317</t>
+  </si>
+  <si>
+    <t>NA47/NA47-318</t>
+  </si>
+  <si>
+    <t>NA47/NA47-319</t>
+  </si>
+  <si>
+    <t>NA47/NA47-320</t>
+  </si>
+  <si>
+    <t>NA47/NA47-321</t>
+  </si>
+  <si>
+    <t>NA47/NA47-322</t>
+  </si>
+  <si>
+    <t>NA47/NA47-323</t>
+  </si>
+  <si>
+    <t>NA47/NA47-324</t>
+  </si>
+  <si>
+    <t>NA47/NA47-325</t>
+  </si>
+  <si>
+    <t>NA47/NA47-326</t>
+  </si>
+  <si>
+    <t>NA47/NA47-327</t>
+  </si>
+  <si>
+    <t>NA47/NA47-328</t>
+  </si>
+  <si>
+    <t>NA47/NA47-329</t>
+  </si>
+  <si>
+    <t>NA47/NA47-330</t>
+  </si>
+  <si>
+    <t>NA47/NA47-331</t>
+  </si>
+  <si>
+    <t>NA47/NA47-332</t>
+  </si>
+  <si>
+    <t>NA47/NA47-333</t>
+  </si>
+  <si>
+    <t>NA47/NA47-334</t>
+  </si>
+  <si>
+    <t>NA47/NA47-335</t>
+  </si>
+  <si>
+    <t>NA47/NA47-336</t>
+  </si>
+  <si>
+    <t>NA47/NA47-337</t>
+  </si>
+  <si>
+    <t>NA47/NA47-338</t>
+  </si>
+  <si>
+    <t>NA47/NA47-339</t>
+  </si>
+  <si>
+    <t>NA47/NA47-340</t>
+  </si>
+  <si>
+    <t>NA47/NA47-341</t>
+  </si>
+  <si>
+    <t>NA47/NA47-342</t>
+  </si>
+  <si>
+    <t>NA47/NA47-343</t>
+  </si>
+  <si>
+    <t>NA47/NA47-344</t>
+  </si>
+  <si>
+    <t>NA47/NA47-345</t>
+  </si>
+  <si>
+    <t>NA47/NA47-346</t>
+  </si>
+  <si>
+    <t>NA47/NA47-347</t>
+  </si>
+  <si>
+    <t>NA47/NA47-348</t>
+  </si>
+  <si>
+    <t>NA47/NA47-349</t>
+  </si>
+  <si>
+    <t>NA47/NA47-350</t>
+  </si>
+  <si>
+    <t>NA47/NA47-351</t>
+  </si>
+  <si>
+    <t>NA47/NA47-352</t>
+  </si>
+  <si>
+    <t>NA47/NA47-353</t>
+  </si>
+  <si>
+    <t>NA47/NA47-354</t>
+  </si>
+  <si>
+    <t>NA47/NA47-355</t>
+  </si>
+  <si>
+    <t>NA47/NA47-356</t>
+  </si>
+  <si>
+    <t>NA47/NA47-357</t>
+  </si>
+  <si>
+    <t>NA47/NA47-358</t>
+  </si>
+  <si>
+    <t>NA47/NA47-359</t>
+  </si>
+  <si>
+    <t>NA47/NA47-360</t>
+  </si>
+  <si>
+    <t>NA47/NA47-361</t>
+  </si>
+  <si>
+    <t>NA47/NA47-362</t>
+  </si>
+  <si>
+    <t>NA47/NA47-363</t>
+  </si>
+  <si>
+    <t>NA47/NA47-364</t>
+  </si>
+  <si>
+    <t>NA47/NA47-365</t>
+  </si>
+  <si>
+    <t>NA47/NA47-366</t>
+  </si>
+  <si>
+    <t>NA47/NA47-367</t>
+  </si>
+  <si>
+    <t>NA47/NA47-368</t>
+  </si>
+  <si>
+    <t>NA47/NA47-369</t>
+  </si>
+  <si>
+    <t>NA47/NA47-370</t>
+  </si>
+  <si>
+    <t>NA47/NA47-371</t>
+  </si>
+  <si>
+    <t>NA47/NA47-372</t>
+  </si>
+  <si>
+    <t>NA47/NA47-373</t>
+  </si>
+  <si>
+    <t>NA47/NA47-374</t>
+  </si>
+  <si>
+    <t>NA47/NA47-375</t>
+  </si>
+  <si>
+    <t>NA47/NA47-376</t>
+  </si>
+  <si>
+    <t>NA47/NA47-377</t>
+  </si>
+  <si>
+    <t>NA47/NA47-378</t>
+  </si>
+  <si>
+    <t>NA47/NA47-379</t>
+  </si>
+  <si>
+    <t>NA47/NA47-380</t>
+  </si>
+  <si>
+    <t>NA47/NA47-381</t>
+  </si>
+  <si>
+    <t>NA47/NA47-382</t>
+  </si>
+  <si>
+    <t>NA47/NA47-383</t>
+  </si>
+  <si>
+    <t>NA47/NA47-384</t>
+  </si>
+  <si>
+    <t>NA47/NA47-385</t>
+  </si>
+  <si>
+    <t>NA47/NA47-386</t>
+  </si>
+  <si>
+    <t>NA47/NA47-387</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3523,6 +4687,11 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4010,10 +5179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H389"/>
+  <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4026,10 +5195,11 @@
     <col min="6" max="6" width="6.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -4061,7 +5231,7 @@
         <v>11274</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>349</v>
       </c>
@@ -4086,8 +5256,11 @@
       <c r="H2" s="29" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4112,8 +5285,15 @@
       <c r="H3" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" t="str">
+        <f>J3 &amp;".pdf"</f>
+        <v>NA47/NA47-1.pdf</v>
+      </c>
+      <c r="J3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4138,8 +5318,15 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I67" si="0">J4 &amp;".pdf"</f>
+        <v>NA47/NA47-2.pdf</v>
+      </c>
+      <c r="J4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4164,8 +5351,15 @@
       <c r="H5" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-3.pdf</v>
+      </c>
+      <c r="J5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4190,8 +5384,15 @@
       <c r="H6" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-4.pdf</v>
+      </c>
+      <c r="J6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4216,8 +5417,15 @@
       <c r="H7" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-5.pdf</v>
+      </c>
+      <c r="J7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4242,8 +5450,15 @@
       <c r="H8" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-6.pdf</v>
+      </c>
+      <c r="J8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4268,8 +5483,15 @@
       <c r="H9" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-7.pdf</v>
+      </c>
+      <c r="J9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4294,8 +5516,15 @@
       <c r="H10" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-8.pdf</v>
+      </c>
+      <c r="J10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4320,8 +5549,15 @@
       <c r="H11" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-9.pdf</v>
+      </c>
+      <c r="J11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -4346,8 +5582,15 @@
       <c r="H12" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-10.pdf</v>
+      </c>
+      <c r="J12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -4372,8 +5615,15 @@
       <c r="H13" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-11.pdf</v>
+      </c>
+      <c r="J13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -4398,8 +5648,15 @@
       <c r="H14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-12.pdf</v>
+      </c>
+      <c r="J14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -4424,8 +5681,15 @@
       <c r="H15" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-13.pdf</v>
+      </c>
+      <c r="J15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -4450,8 +5714,15 @@
       <c r="H16" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-14.pdf</v>
+      </c>
+      <c r="J16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -4476,8 +5747,15 @@
       <c r="H17" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-15.pdf</v>
+      </c>
+      <c r="J17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -4502,8 +5780,15 @@
       <c r="H18" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-16.pdf</v>
+      </c>
+      <c r="J18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -4528,8 +5813,15 @@
       <c r="H19" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-17.pdf</v>
+      </c>
+      <c r="J19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -4554,8 +5846,15 @@
       <c r="H20" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-18.pdf</v>
+      </c>
+      <c r="J20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -4580,8 +5879,15 @@
       <c r="H21" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-19.pdf</v>
+      </c>
+      <c r="J21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -4606,8 +5912,15 @@
       <c r="H22" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-20.pdf</v>
+      </c>
+      <c r="J22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -4632,8 +5945,15 @@
       <c r="H23" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-21.pdf</v>
+      </c>
+      <c r="J23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -4658,8 +5978,15 @@
       <c r="H24" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-22.pdf</v>
+      </c>
+      <c r="J24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -4684,8 +6011,15 @@
       <c r="H25" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-23.pdf</v>
+      </c>
+      <c r="J25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -4710,8 +6044,15 @@
       <c r="H26" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-24.pdf</v>
+      </c>
+      <c r="J26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -4736,8 +6077,15 @@
       <c r="H27" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-25.pdf</v>
+      </c>
+      <c r="J27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -4762,8 +6110,15 @@
       <c r="H28" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-26.pdf</v>
+      </c>
+      <c r="J28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -4788,8 +6143,15 @@
       <c r="H29" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-27.pdf</v>
+      </c>
+      <c r="J29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -4814,8 +6176,15 @@
       <c r="H30" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-28.pdf</v>
+      </c>
+      <c r="J30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -4840,8 +6209,15 @@
       <c r="H31" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-29.pdf</v>
+      </c>
+      <c r="J31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -4866,8 +6242,15 @@
       <c r="H32" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-30.pdf</v>
+      </c>
+      <c r="J32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -4892,8 +6275,15 @@
       <c r="H33" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-31.pdf</v>
+      </c>
+      <c r="J33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -4918,8 +6308,15 @@
       <c r="H34" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-32.pdf</v>
+      </c>
+      <c r="J34" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -4944,8 +6341,15 @@
       <c r="H35" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-33.pdf</v>
+      </c>
+      <c r="J35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -4970,8 +6374,15 @@
       <c r="H36" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-34.pdf</v>
+      </c>
+      <c r="J36" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -4996,8 +6407,15 @@
       <c r="H37" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-35.pdf</v>
+      </c>
+      <c r="J37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -5022,8 +6440,15 @@
       <c r="H38" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-36.pdf</v>
+      </c>
+      <c r="J38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -5048,8 +6473,15 @@
       <c r="H39" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-37.pdf</v>
+      </c>
+      <c r="J39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -5074,8 +6506,15 @@
       <c r="H40" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-38.pdf</v>
+      </c>
+      <c r="J40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -5100,8 +6539,15 @@
       <c r="H41" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-39.pdf</v>
+      </c>
+      <c r="J41" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -5126,8 +6572,15 @@
       <c r="H42" s="7">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-40.pdf</v>
+      </c>
+      <c r="J42" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -5152,8 +6605,15 @@
       <c r="H43" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-41.pdf</v>
+      </c>
+      <c r="J43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -5178,8 +6638,15 @@
       <c r="H44" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-42.pdf</v>
+      </c>
+      <c r="J44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -5204,8 +6671,15 @@
       <c r="H45" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-43.pdf</v>
+      </c>
+      <c r="J45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -5230,8 +6704,15 @@
       <c r="H46" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-44.pdf</v>
+      </c>
+      <c r="J46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -5256,8 +6737,15 @@
       <c r="H47" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-45.pdf</v>
+      </c>
+      <c r="J47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -5282,8 +6770,15 @@
       <c r="H48" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-46.pdf</v>
+      </c>
+      <c r="J48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -5308,8 +6803,15 @@
       <c r="H49" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-47.pdf</v>
+      </c>
+      <c r="J49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -5334,8 +6836,15 @@
       <c r="H50" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-48.pdf</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -5360,8 +6869,15 @@
       <c r="H51" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-49.pdf</v>
+      </c>
+      <c r="J51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -5386,8 +6902,15 @@
       <c r="H52" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-50.pdf</v>
+      </c>
+      <c r="J52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -5412,8 +6935,15 @@
       <c r="H53" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-51.pdf</v>
+      </c>
+      <c r="J53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -5438,8 +6968,15 @@
       <c r="H54" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-52.pdf</v>
+      </c>
+      <c r="J54" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -5464,8 +7001,15 @@
       <c r="H55" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-53.pdf</v>
+      </c>
+      <c r="J55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -5490,8 +7034,15 @@
       <c r="H56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-54.pdf</v>
+      </c>
+      <c r="J56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -5516,8 +7067,15 @@
       <c r="H57" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-55.pdf</v>
+      </c>
+      <c r="J57" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -5542,8 +7100,15 @@
       <c r="H58" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-56.pdf</v>
+      </c>
+      <c r="J58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -5568,8 +7133,15 @@
       <c r="H59" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-57.pdf</v>
+      </c>
+      <c r="J59" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -5594,8 +7166,15 @@
       <c r="H60" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-58.pdf</v>
+      </c>
+      <c r="J60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -5620,8 +7199,15 @@
       <c r="H61" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-59.pdf</v>
+      </c>
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -5646,8 +7232,15 @@
       <c r="H62" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-60.pdf</v>
+      </c>
+      <c r="J62" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -5672,8 +7265,15 @@
       <c r="H63" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-61.pdf</v>
+      </c>
+      <c r="J63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -5698,8 +7298,15 @@
       <c r="H64" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-62.pdf</v>
+      </c>
+      <c r="J64" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -5724,8 +7331,15 @@
       <c r="H65" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-63.pdf</v>
+      </c>
+      <c r="J65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -5750,8 +7364,15 @@
       <c r="H66" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-64.pdf</v>
+      </c>
+      <c r="J66" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -5776,8 +7397,15 @@
       <c r="H67" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67" t="str">
+        <f t="shared" si="0"/>
+        <v>NA47/NA47-65.pdf</v>
+      </c>
+      <c r="J67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -5802,8 +7430,15 @@
       <c r="H68" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I68" t="str">
+        <f t="shared" ref="I68:I131" si="1">J68 &amp;".pdf"</f>
+        <v>NA47/NA47-66.pdf</v>
+      </c>
+      <c r="J68" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -5828,8 +7463,15 @@
       <c r="H69" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-67.pdf</v>
+      </c>
+      <c r="J69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -5854,8 +7496,15 @@
       <c r="H70" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-68.pdf</v>
+      </c>
+      <c r="J70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -5880,8 +7529,15 @@
       <c r="H71" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-69.pdf</v>
+      </c>
+      <c r="J71" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -5906,8 +7562,15 @@
       <c r="H72" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-70.pdf</v>
+      </c>
+      <c r="J72" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -5932,8 +7595,15 @@
       <c r="H73" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-71.pdf</v>
+      </c>
+      <c r="J73" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -5958,8 +7628,15 @@
       <c r="H74" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-72.pdf</v>
+      </c>
+      <c r="J74" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -5984,8 +7661,15 @@
       <c r="H75" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-73.pdf</v>
+      </c>
+      <c r="J75" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -6010,8 +7694,15 @@
       <c r="H76" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-74.pdf</v>
+      </c>
+      <c r="J76" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -6036,8 +7727,15 @@
       <c r="H77" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-75.pdf</v>
+      </c>
+      <c r="J77" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -6062,8 +7760,15 @@
       <c r="H78" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-76.pdf</v>
+      </c>
+      <c r="J78" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -6088,8 +7793,15 @@
       <c r="H79" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-77.pdf</v>
+      </c>
+      <c r="J79" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -6114,8 +7826,15 @@
       <c r="H80" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-78.pdf</v>
+      </c>
+      <c r="J80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -6140,8 +7859,15 @@
       <c r="H81" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-79.pdf</v>
+      </c>
+      <c r="J81" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -6166,8 +7892,15 @@
       <c r="H82" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-80.pdf</v>
+      </c>
+      <c r="J82" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -6192,8 +7925,15 @@
       <c r="H83" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-81.pdf</v>
+      </c>
+      <c r="J83" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -6218,8 +7958,15 @@
       <c r="H84" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-82.pdf</v>
+      </c>
+      <c r="J84" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -6244,8 +7991,15 @@
       <c r="H85" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-83.pdf</v>
+      </c>
+      <c r="J85" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -6270,8 +8024,15 @@
       <c r="H86" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-84.pdf</v>
+      </c>
+      <c r="J86" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -6296,8 +8057,15 @@
       <c r="H87" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-85.pdf</v>
+      </c>
+      <c r="J87" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -6322,8 +8090,15 @@
       <c r="H88" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-86.pdf</v>
+      </c>
+      <c r="J88" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -6348,8 +8123,15 @@
       <c r="H89" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-87.pdf</v>
+      </c>
+      <c r="J89" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -6374,8 +8156,15 @@
       <c r="H90" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-88.pdf</v>
+      </c>
+      <c r="J90" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -6400,8 +8189,15 @@
       <c r="H91" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-89.pdf</v>
+      </c>
+      <c r="J91" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -6426,8 +8222,15 @@
       <c r="H92" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-90.pdf</v>
+      </c>
+      <c r="J92" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -6452,8 +8255,15 @@
       <c r="H93" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-91.pdf</v>
+      </c>
+      <c r="J93" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -6478,8 +8288,15 @@
       <c r="H94" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I94" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-92.pdf</v>
+      </c>
+      <c r="J94" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -6504,8 +8321,15 @@
       <c r="H95" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I95" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-93.pdf</v>
+      </c>
+      <c r="J95" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -6530,8 +8354,15 @@
       <c r="H96" s="3">
         <v>248</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I96" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-94.pdf</v>
+      </c>
+      <c r="J96" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -6556,8 +8387,15 @@
       <c r="H97" s="3">
         <v>193</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I97" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-95.pdf</v>
+      </c>
+      <c r="J97" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -6582,8 +8420,15 @@
       <c r="H98" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-96.pdf</v>
+      </c>
+      <c r="J98" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -6608,8 +8453,15 @@
       <c r="H99" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-97.pdf</v>
+      </c>
+      <c r="J99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -6634,8 +8486,15 @@
       <c r="H100" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I100" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-98.pdf</v>
+      </c>
+      <c r="J100" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>99</v>
       </c>
@@ -6660,8 +8519,15 @@
       <c r="H101" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I101" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-99.pdf</v>
+      </c>
+      <c r="J101" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>100</v>
       </c>
@@ -6686,8 +8552,15 @@
       <c r="H102" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I102" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-100.pdf</v>
+      </c>
+      <c r="J102" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>101</v>
       </c>
@@ -6712,8 +8585,15 @@
       <c r="H103" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I103" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-101.pdf</v>
+      </c>
+      <c r="J103" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>102</v>
       </c>
@@ -6738,8 +8618,15 @@
       <c r="H104" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I104" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-102.pdf</v>
+      </c>
+      <c r="J104" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>103</v>
       </c>
@@ -6764,8 +8651,15 @@
       <c r="H105" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I105" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-103.pdf</v>
+      </c>
+      <c r="J105" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>104</v>
       </c>
@@ -6790,8 +8684,15 @@
       <c r="H106" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I106" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-104.pdf</v>
+      </c>
+      <c r="J106" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>105</v>
       </c>
@@ -6816,8 +8717,15 @@
       <c r="H107" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I107" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-105.pdf</v>
+      </c>
+      <c r="J107" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -6842,8 +8750,15 @@
       <c r="H108" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I108" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-106.pdf</v>
+      </c>
+      <c r="J108" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -6868,8 +8783,15 @@
       <c r="H109" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I109" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-107.pdf</v>
+      </c>
+      <c r="J109" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -6894,8 +8816,15 @@
       <c r="H110" s="3">
         <v>156</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I110" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-108.pdf</v>
+      </c>
+      <c r="J110" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -6920,8 +8849,15 @@
       <c r="H111" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I111" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-109.pdf</v>
+      </c>
+      <c r="J111" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -6946,8 +8882,15 @@
       <c r="H112" s="15">
         <v>58</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I112" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-110.pdf</v>
+      </c>
+      <c r="J112" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -6972,8 +8915,15 @@
       <c r="H113" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I113" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-111.pdf</v>
+      </c>
+      <c r="J113" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -6998,8 +8948,15 @@
       <c r="H114" s="6">
         <v>144</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I114" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-112.pdf</v>
+      </c>
+      <c r="J114" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -7024,8 +8981,15 @@
       <c r="H115" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I115" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-113.pdf</v>
+      </c>
+      <c r="J115" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -7050,8 +9014,15 @@
       <c r="H116" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I116" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-114.pdf</v>
+      </c>
+      <c r="J116" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -7076,8 +9047,15 @@
       <c r="H117" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I117" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-115.pdf</v>
+      </c>
+      <c r="J117" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -7102,8 +9080,15 @@
       <c r="H118" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I118" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-116.pdf</v>
+      </c>
+      <c r="J118" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -7128,8 +9113,15 @@
       <c r="H119" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I119" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-117.pdf</v>
+      </c>
+      <c r="J119" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -7154,8 +9146,15 @@
       <c r="H120" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I120" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-118.pdf</v>
+      </c>
+      <c r="J120" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -7180,8 +9179,15 @@
       <c r="H121" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I121" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-119.pdf</v>
+      </c>
+      <c r="J121" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -7206,8 +9212,15 @@
       <c r="H122" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I122" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-120.pdf</v>
+      </c>
+      <c r="J122" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -7232,8 +9245,15 @@
       <c r="H123" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I123" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-121.pdf</v>
+      </c>
+      <c r="J123" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -7258,8 +9278,15 @@
       <c r="H124" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I124" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-122.pdf</v>
+      </c>
+      <c r="J124" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -7284,8 +9311,15 @@
       <c r="H125" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I125" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-123.pdf</v>
+      </c>
+      <c r="J125" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -7310,8 +9344,15 @@
       <c r="H126" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I126" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-124.pdf</v>
+      </c>
+      <c r="J126" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -7336,8 +9377,15 @@
       <c r="H127" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I127" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-125.pdf</v>
+      </c>
+      <c r="J127" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -7362,8 +9410,15 @@
       <c r="H128" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I128" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-126.pdf</v>
+      </c>
+      <c r="J128" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -7388,8 +9443,15 @@
       <c r="H129" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I129" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-127.pdf</v>
+      </c>
+      <c r="J129" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -7414,8 +9476,15 @@
       <c r="H130" s="3">
         <v>290</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I130" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-128.pdf</v>
+      </c>
+      <c r="J130" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -7440,8 +9509,15 @@
       <c r="H131" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I131" t="str">
+        <f t="shared" si="1"/>
+        <v>NA47/NA47-129.pdf</v>
+      </c>
+      <c r="J131" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -7466,8 +9542,15 @@
       <c r="H132" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I132" t="str">
+        <f t="shared" ref="I132:I195" si="2">J132 &amp;".pdf"</f>
+        <v>NA47/NA47-130.pdf</v>
+      </c>
+      <c r="J132" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -7492,8 +9575,15 @@
       <c r="H133" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I133" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-131.pdf</v>
+      </c>
+      <c r="J133" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -7518,8 +9608,15 @@
       <c r="H134" s="7">
         <v>191</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I134" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-132.pdf</v>
+      </c>
+      <c r="J134" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -7544,8 +9641,15 @@
       <c r="H135" s="3">
         <v>159</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I135" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-133.pdf</v>
+      </c>
+      <c r="J135" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -7570,8 +9674,15 @@
       <c r="H136" s="3">
         <v>186</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I136" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-134.pdf</v>
+      </c>
+      <c r="J136" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -7596,8 +9707,15 @@
       <c r="H137" s="7">
         <v>105</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I137" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-135.pdf</v>
+      </c>
+      <c r="J137" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -7622,8 +9740,15 @@
       <c r="H138" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I138" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-136.pdf</v>
+      </c>
+      <c r="J138" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -7648,8 +9773,15 @@
       <c r="H139" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I139" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-137.pdf</v>
+      </c>
+      <c r="J139" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -7674,8 +9806,15 @@
       <c r="H140" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I140" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-138.pdf</v>
+      </c>
+      <c r="J140" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -7700,8 +9839,15 @@
       <c r="H141" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I141" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-139.pdf</v>
+      </c>
+      <c r="J141" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -7726,8 +9872,15 @@
       <c r="H142" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I142" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-140.pdf</v>
+      </c>
+      <c r="J142" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -7752,8 +9905,15 @@
       <c r="H143" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I143" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-141.pdf</v>
+      </c>
+      <c r="J143" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -7778,8 +9938,15 @@
       <c r="H144" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I144" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-142.pdf</v>
+      </c>
+      <c r="J144" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -7804,8 +9971,15 @@
       <c r="H145" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I145" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-143.pdf</v>
+      </c>
+      <c r="J145" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -7830,8 +10004,15 @@
       <c r="H146" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I146" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-144.pdf</v>
+      </c>
+      <c r="J146" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -7856,8 +10037,15 @@
       <c r="H147" s="5">
         <v>205</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I147" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-145.pdf</v>
+      </c>
+      <c r="J147" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -7882,8 +10070,15 @@
       <c r="H148" s="3">
         <v>134</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I148" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-146.pdf</v>
+      </c>
+      <c r="J148" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -7908,8 +10103,15 @@
       <c r="H149" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I149" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-147.pdf</v>
+      </c>
+      <c r="J149" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -7934,8 +10136,15 @@
       <c r="H150" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I150" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-148.pdf</v>
+      </c>
+      <c r="J150" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -7960,8 +10169,15 @@
       <c r="H151" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I151" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-149.pdf</v>
+      </c>
+      <c r="J151" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -7986,8 +10202,15 @@
       <c r="H152" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I152" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-150.pdf</v>
+      </c>
+      <c r="J152" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>151</v>
       </c>
@@ -8012,8 +10235,15 @@
       <c r="H153" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I153" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-151.pdf</v>
+      </c>
+      <c r="J153" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -8038,8 +10268,15 @@
       <c r="H154" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I154" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-152.pdf</v>
+      </c>
+      <c r="J154" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>153</v>
       </c>
@@ -8064,8 +10301,15 @@
       <c r="H155" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I155" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-153.pdf</v>
+      </c>
+      <c r="J155" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>154</v>
       </c>
@@ -8090,8 +10334,15 @@
       <c r="H156" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I156" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-154.pdf</v>
+      </c>
+      <c r="J156" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>155</v>
       </c>
@@ -8116,8 +10367,15 @@
       <c r="H157" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I157" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-155.pdf</v>
+      </c>
+      <c r="J157" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>156</v>
       </c>
@@ -8142,8 +10400,15 @@
       <c r="H158" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I158" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-156.pdf</v>
+      </c>
+      <c r="J158" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>157</v>
       </c>
@@ -8168,8 +10433,15 @@
       <c r="H159" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I159" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-157.pdf</v>
+      </c>
+      <c r="J159" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>158</v>
       </c>
@@ -8194,8 +10466,15 @@
       <c r="H160" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I160" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-158.pdf</v>
+      </c>
+      <c r="J160" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>159</v>
       </c>
@@ -8220,8 +10499,15 @@
       <c r="H161" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I161" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-159.pdf</v>
+      </c>
+      <c r="J161" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>160</v>
       </c>
@@ -8246,8 +10532,15 @@
       <c r="H162" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I162" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-160.pdf</v>
+      </c>
+      <c r="J162" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>161</v>
       </c>
@@ -8272,8 +10565,15 @@
       <c r="H163" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I163" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-161.pdf</v>
+      </c>
+      <c r="J163" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>162</v>
       </c>
@@ -8298,8 +10598,15 @@
       <c r="H164" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I164" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-162.pdf</v>
+      </c>
+      <c r="J164" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>163</v>
       </c>
@@ -8324,8 +10631,15 @@
       <c r="H165" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I165" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-163.pdf</v>
+      </c>
+      <c r="J165" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>164</v>
       </c>
@@ -8350,8 +10664,15 @@
       <c r="H166" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I166" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-164.pdf</v>
+      </c>
+      <c r="J166" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>165</v>
       </c>
@@ -8376,8 +10697,15 @@
       <c r="H167" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I167" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-165.pdf</v>
+      </c>
+      <c r="J167" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>166</v>
       </c>
@@ -8402,8 +10730,15 @@
       <c r="H168" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I168" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-166.pdf</v>
+      </c>
+      <c r="J168" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>167</v>
       </c>
@@ -8428,8 +10763,15 @@
       <c r="H169" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I169" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-167.pdf</v>
+      </c>
+      <c r="J169" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>168</v>
       </c>
@@ -8454,8 +10796,15 @@
       <c r="H170" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I170" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-168.pdf</v>
+      </c>
+      <c r="J170" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>169</v>
       </c>
@@ -8480,8 +10829,15 @@
       <c r="H171" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I171" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-169.pdf</v>
+      </c>
+      <c r="J171" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>170</v>
       </c>
@@ -8506,8 +10862,15 @@
       <c r="H172" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I172" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-170.pdf</v>
+      </c>
+      <c r="J172" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>171</v>
       </c>
@@ -8532,8 +10895,15 @@
       <c r="H173" s="7">
         <v>91</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I173" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-171.pdf</v>
+      </c>
+      <c r="J173" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>172</v>
       </c>
@@ -8558,8 +10928,15 @@
       <c r="H174" s="7">
         <v>64</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I174" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-172.pdf</v>
+      </c>
+      <c r="J174" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>173</v>
       </c>
@@ -8584,8 +10961,15 @@
       <c r="H175" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I175" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-173.pdf</v>
+      </c>
+      <c r="J175" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>174</v>
       </c>
@@ -8610,8 +10994,15 @@
       <c r="H176" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I176" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-174.pdf</v>
+      </c>
+      <c r="J176" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>175</v>
       </c>
@@ -8636,8 +11027,15 @@
       <c r="H177" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I177" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-175.pdf</v>
+      </c>
+      <c r="J177" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>176</v>
       </c>
@@ -8662,8 +11060,15 @@
       <c r="H178" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I178" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-176.pdf</v>
+      </c>
+      <c r="J178" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>177</v>
       </c>
@@ -8688,8 +11093,15 @@
       <c r="H179" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I179" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-177.pdf</v>
+      </c>
+      <c r="J179" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>178</v>
       </c>
@@ -8714,8 +11126,15 @@
       <c r="H180" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I180" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-178.pdf</v>
+      </c>
+      <c r="J180" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>179</v>
       </c>
@@ -8740,8 +11159,15 @@
       <c r="H181" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I181" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-179.pdf</v>
+      </c>
+      <c r="J181" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>180</v>
       </c>
@@ -8766,8 +11192,15 @@
       <c r="H182" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I182" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-180.pdf</v>
+      </c>
+      <c r="J182" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>181</v>
       </c>
@@ -8792,8 +11225,15 @@
       <c r="H183" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I183" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-181.pdf</v>
+      </c>
+      <c r="J183" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>182</v>
       </c>
@@ -8818,8 +11258,15 @@
       <c r="H184" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I184" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-182.pdf</v>
+      </c>
+      <c r="J184" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>183</v>
       </c>
@@ -8844,8 +11291,15 @@
       <c r="H185" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I185" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-183.pdf</v>
+      </c>
+      <c r="J185" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>184</v>
       </c>
@@ -8870,8 +11324,15 @@
       <c r="H186" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I186" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-184.pdf</v>
+      </c>
+      <c r="J186" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>185</v>
       </c>
@@ -8896,8 +11357,15 @@
       <c r="H187" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I187" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-185.pdf</v>
+      </c>
+      <c r="J187" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>186</v>
       </c>
@@ -8922,8 +11390,15 @@
       <c r="H188" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I188" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-186.pdf</v>
+      </c>
+      <c r="J188" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>187</v>
       </c>
@@ -8948,8 +11423,15 @@
       <c r="H189" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I189" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-187.pdf</v>
+      </c>
+      <c r="J189" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>188</v>
       </c>
@@ -8974,8 +11456,15 @@
       <c r="H190" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I190" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-188.pdf</v>
+      </c>
+      <c r="J190" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>189</v>
       </c>
@@ -9000,8 +11489,15 @@
       <c r="H191" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I191" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-189.pdf</v>
+      </c>
+      <c r="J191" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>190</v>
       </c>
@@ -9026,8 +11522,15 @@
       <c r="H192" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I192" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-190.pdf</v>
+      </c>
+      <c r="J192" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>191</v>
       </c>
@@ -9052,8 +11555,15 @@
       <c r="H193" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I193" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-191.pdf</v>
+      </c>
+      <c r="J193" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>192</v>
       </c>
@@ -9078,8 +11588,15 @@
       <c r="H194" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I194" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-192.pdf</v>
+      </c>
+      <c r="J194" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>193</v>
       </c>
@@ -9104,8 +11621,15 @@
       <c r="H195" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I195" t="str">
+        <f t="shared" si="2"/>
+        <v>NA47/NA47-193.pdf</v>
+      </c>
+      <c r="J195" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>194</v>
       </c>
@@ -9130,8 +11654,15 @@
       <c r="H196" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I196" t="str">
+        <f t="shared" ref="I196:I259" si="3">J196 &amp;".pdf"</f>
+        <v>NA47/NA47-194.pdf</v>
+      </c>
+      <c r="J196" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>195</v>
       </c>
@@ -9156,8 +11687,15 @@
       <c r="H197" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I197" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-195.pdf</v>
+      </c>
+      <c r="J197" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>196</v>
       </c>
@@ -9182,8 +11720,15 @@
       <c r="H198" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I198" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-196.pdf</v>
+      </c>
+      <c r="J198" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>197</v>
       </c>
@@ -9208,8 +11753,15 @@
       <c r="H199" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I199" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-197.pdf</v>
+      </c>
+      <c r="J199" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>198</v>
       </c>
@@ -9234,8 +11786,15 @@
       <c r="H200" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I200" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-198.pdf</v>
+      </c>
+      <c r="J200" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>199</v>
       </c>
@@ -9260,8 +11819,15 @@
       <c r="H201" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I201" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-199.pdf</v>
+      </c>
+      <c r="J201" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>200</v>
       </c>
@@ -9286,8 +11852,15 @@
       <c r="H202" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I202" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-200.pdf</v>
+      </c>
+      <c r="J202" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>201</v>
       </c>
@@ -9312,8 +11885,15 @@
       <c r="H203" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I203" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-201.pdf</v>
+      </c>
+      <c r="J203" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>202</v>
       </c>
@@ -9338,8 +11918,15 @@
       <c r="H204" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I204" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-202.pdf</v>
+      </c>
+      <c r="J204" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>203</v>
       </c>
@@ -9364,8 +11951,15 @@
       <c r="H205" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I205" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-203.pdf</v>
+      </c>
+      <c r="J205" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>204</v>
       </c>
@@ -9390,8 +11984,15 @@
       <c r="H206" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I206" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-204.pdf</v>
+      </c>
+      <c r="J206" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>205</v>
       </c>
@@ -9416,8 +12017,15 @@
       <c r="H207" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I207" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-205.pdf</v>
+      </c>
+      <c r="J207" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>206</v>
       </c>
@@ -9442,8 +12050,15 @@
       <c r="H208" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I208" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-206.pdf</v>
+      </c>
+      <c r="J208" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>207</v>
       </c>
@@ -9468,8 +12083,15 @@
       <c r="H209" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I209" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-207.pdf</v>
+      </c>
+      <c r="J209" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>208</v>
       </c>
@@ -9494,8 +12116,15 @@
       <c r="H210" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I210" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-208.pdf</v>
+      </c>
+      <c r="J210" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>209</v>
       </c>
@@ -9520,8 +12149,15 @@
       <c r="H211" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I211" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-209.pdf</v>
+      </c>
+      <c r="J211" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>210</v>
       </c>
@@ -9546,8 +12182,15 @@
       <c r="H212" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I212" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-210.pdf</v>
+      </c>
+      <c r="J212" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>211</v>
       </c>
@@ -9572,8 +12215,15 @@
       <c r="H213" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I213" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-211.pdf</v>
+      </c>
+      <c r="J213" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>212</v>
       </c>
@@ -9598,8 +12248,15 @@
       <c r="H214" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I214" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-212.pdf</v>
+      </c>
+      <c r="J214" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>213</v>
       </c>
@@ -9624,8 +12281,15 @@
       <c r="H215" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I215" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-213.pdf</v>
+      </c>
+      <c r="J215" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>214</v>
       </c>
@@ -9650,8 +12314,15 @@
       <c r="H216" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I216" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-214.pdf</v>
+      </c>
+      <c r="J216" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>215</v>
       </c>
@@ -9676,8 +12347,15 @@
       <c r="H217" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I217" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-215.pdf</v>
+      </c>
+      <c r="J217" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>216</v>
       </c>
@@ -9702,8 +12380,15 @@
       <c r="H218" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I218" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-216.pdf</v>
+      </c>
+      <c r="J218" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>217</v>
       </c>
@@ -9728,8 +12413,15 @@
       <c r="H219" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I219" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-217.pdf</v>
+      </c>
+      <c r="J219" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>218</v>
       </c>
@@ -9754,8 +12446,15 @@
       <c r="H220" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I220" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-218.pdf</v>
+      </c>
+      <c r="J220" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>219</v>
       </c>
@@ -9780,8 +12479,15 @@
       <c r="H221" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I221" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-219.pdf</v>
+      </c>
+      <c r="J221" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>220</v>
       </c>
@@ -9806,8 +12512,15 @@
       <c r="H222" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I222" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-220.pdf</v>
+      </c>
+      <c r="J222" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>221</v>
       </c>
@@ -9832,8 +12545,15 @@
       <c r="H223" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I223" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-221.pdf</v>
+      </c>
+      <c r="J223" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>222</v>
       </c>
@@ -9858,8 +12578,15 @@
       <c r="H224" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I224" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-222.pdf</v>
+      </c>
+      <c r="J224" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>223</v>
       </c>
@@ -9884,8 +12611,15 @@
       <c r="H225" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I225" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-223.pdf</v>
+      </c>
+      <c r="J225" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>224</v>
       </c>
@@ -9910,8 +12644,15 @@
       <c r="H226" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I226" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-224.pdf</v>
+      </c>
+      <c r="J226" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>225</v>
       </c>
@@ -9936,8 +12677,15 @@
       <c r="H227" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I227" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-225.pdf</v>
+      </c>
+      <c r="J227" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>226</v>
       </c>
@@ -9962,8 +12710,15 @@
       <c r="H228" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I228" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-226.pdf</v>
+      </c>
+      <c r="J228" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>227</v>
       </c>
@@ -9988,8 +12743,15 @@
       <c r="H229" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I229" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-227.pdf</v>
+      </c>
+      <c r="J229" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>228</v>
       </c>
@@ -10014,8 +12776,15 @@
       <c r="H230" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I230" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-228.pdf</v>
+      </c>
+      <c r="J230" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>229</v>
       </c>
@@ -10040,8 +12809,15 @@
       <c r="H231" s="20">
         <v>25</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I231" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-229.pdf</v>
+      </c>
+      <c r="J231" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>230</v>
       </c>
@@ -10066,8 +12842,15 @@
       <c r="H232" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I232" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-230.pdf</v>
+      </c>
+      <c r="J232" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>231</v>
       </c>
@@ -10092,8 +12875,15 @@
       <c r="H233" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I233" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-231.pdf</v>
+      </c>
+      <c r="J233" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>232</v>
       </c>
@@ -10118,8 +12908,15 @@
       <c r="H234" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I234" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-232.pdf</v>
+      </c>
+      <c r="J234" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>233</v>
       </c>
@@ -10144,8 +12941,15 @@
       <c r="H235" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I235" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-233.pdf</v>
+      </c>
+      <c r="J235" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>234</v>
       </c>
@@ -10170,8 +12974,15 @@
       <c r="H236" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I236" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-234.pdf</v>
+      </c>
+      <c r="J236" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>235</v>
       </c>
@@ -10196,8 +13007,15 @@
       <c r="H237" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I237" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-235.pdf</v>
+      </c>
+      <c r="J237" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>236</v>
       </c>
@@ -10222,8 +13040,15 @@
       <c r="H238" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I238" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-236.pdf</v>
+      </c>
+      <c r="J238" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>237</v>
       </c>
@@ -10248,8 +13073,15 @@
       <c r="H239" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I239" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-237.pdf</v>
+      </c>
+      <c r="J239" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>238</v>
       </c>
@@ -10274,8 +13106,15 @@
       <c r="H240" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I240" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-238.pdf</v>
+      </c>
+      <c r="J240" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>239</v>
       </c>
@@ -10300,8 +13139,15 @@
       <c r="H241" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I241" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-239.pdf</v>
+      </c>
+      <c r="J241" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>240</v>
       </c>
@@ -10326,8 +13172,15 @@
       <c r="H242" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I242" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-240.pdf</v>
+      </c>
+      <c r="J242" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>241</v>
       </c>
@@ -10352,8 +13205,15 @@
       <c r="H243" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I243" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-241.pdf</v>
+      </c>
+      <c r="J243" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>242</v>
       </c>
@@ -10378,8 +13238,15 @@
       <c r="H244" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I244" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-242.pdf</v>
+      </c>
+      <c r="J244" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>243</v>
       </c>
@@ -10404,8 +13271,15 @@
       <c r="H245" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I245" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-243.pdf</v>
+      </c>
+      <c r="J245" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>244</v>
       </c>
@@ -10430,8 +13304,15 @@
       <c r="H246" s="6">
         <v>149</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I246" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-244.pdf</v>
+      </c>
+      <c r="J246" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>245</v>
       </c>
@@ -10456,8 +13337,15 @@
       <c r="H247" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I247" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-245.pdf</v>
+      </c>
+      <c r="J247" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>246</v>
       </c>
@@ -10482,8 +13370,15 @@
       <c r="H248" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I248" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-246.pdf</v>
+      </c>
+      <c r="J248" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>247</v>
       </c>
@@ -10508,8 +13403,15 @@
       <c r="H249" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I249" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-247.pdf</v>
+      </c>
+      <c r="J249" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>248</v>
       </c>
@@ -10534,8 +13436,15 @@
       <c r="H250" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I250" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-248.pdf</v>
+      </c>
+      <c r="J250" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>249</v>
       </c>
@@ -10560,8 +13469,15 @@
       <c r="H251" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I251" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-249.pdf</v>
+      </c>
+      <c r="J251" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>250</v>
       </c>
@@ -10586,8 +13502,15 @@
       <c r="H252" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I252" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-250.pdf</v>
+      </c>
+      <c r="J252" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>251</v>
       </c>
@@ -10612,8 +13535,15 @@
       <c r="H253" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I253" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-251.pdf</v>
+      </c>
+      <c r="J253" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>252</v>
       </c>
@@ -10638,8 +13568,15 @@
       <c r="H254" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I254" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-252.pdf</v>
+      </c>
+      <c r="J254" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>253</v>
       </c>
@@ -10664,8 +13601,15 @@
       <c r="H255" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I255" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-253.pdf</v>
+      </c>
+      <c r="J255" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>254</v>
       </c>
@@ -10690,8 +13634,15 @@
       <c r="H256" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I256" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-254.pdf</v>
+      </c>
+      <c r="J256" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>255</v>
       </c>
@@ -10716,8 +13667,15 @@
       <c r="H257" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I257" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-255.pdf</v>
+      </c>
+      <c r="J257" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>256</v>
       </c>
@@ -10742,8 +13700,15 @@
       <c r="H258" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I258" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-256.pdf</v>
+      </c>
+      <c r="J258" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>257</v>
       </c>
@@ -10768,8 +13733,15 @@
       <c r="H259" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I259" t="str">
+        <f t="shared" si="3"/>
+        <v>NA47/NA47-257.pdf</v>
+      </c>
+      <c r="J259" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>258</v>
       </c>
@@ -10794,8 +13766,15 @@
       <c r="H260" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I260" t="str">
+        <f t="shared" ref="I260:I323" si="4">J260 &amp;".pdf"</f>
+        <v>NA47/NA47-258.pdf</v>
+      </c>
+      <c r="J260" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>259</v>
       </c>
@@ -10820,8 +13799,15 @@
       <c r="H261" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I261" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-259.pdf</v>
+      </c>
+      <c r="J261" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>260</v>
       </c>
@@ -10846,8 +13832,15 @@
       <c r="H262" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I262" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-260.pdf</v>
+      </c>
+      <c r="J262" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>261</v>
       </c>
@@ -10872,8 +13865,15 @@
       <c r="H263" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I263" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-261.pdf</v>
+      </c>
+      <c r="J263" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>262</v>
       </c>
@@ -10898,8 +13898,15 @@
       <c r="H264" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I264" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-262.pdf</v>
+      </c>
+      <c r="J264" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>263</v>
       </c>
@@ -10924,8 +13931,15 @@
       <c r="H265" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I265" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-263.pdf</v>
+      </c>
+      <c r="J265" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>264</v>
       </c>
@@ -10950,8 +13964,15 @@
       <c r="H266" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I266" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-264.pdf</v>
+      </c>
+      <c r="J266" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>265</v>
       </c>
@@ -10976,8 +13997,15 @@
       <c r="H267" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I267" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-265.pdf</v>
+      </c>
+      <c r="J267" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>266</v>
       </c>
@@ -11002,8 +14030,15 @@
       <c r="H268" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I268" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-266.pdf</v>
+      </c>
+      <c r="J268" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>267</v>
       </c>
@@ -11028,8 +14063,15 @@
       <c r="H269" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I269" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-267.pdf</v>
+      </c>
+      <c r="J269" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>268</v>
       </c>
@@ -11054,8 +14096,15 @@
       <c r="H270" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I270" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-268.pdf</v>
+      </c>
+      <c r="J270" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>269</v>
       </c>
@@ -11080,8 +14129,15 @@
       <c r="H271" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I271" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-269.pdf</v>
+      </c>
+      <c r="J271" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>270</v>
       </c>
@@ -11106,8 +14162,15 @@
       <c r="H272" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I272" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-270.pdf</v>
+      </c>
+      <c r="J272" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>271</v>
       </c>
@@ -11132,8 +14195,15 @@
       <c r="H273" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I273" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-271.pdf</v>
+      </c>
+      <c r="J273" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>272</v>
       </c>
@@ -11158,8 +14228,15 @@
       <c r="H274" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I274" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-272.pdf</v>
+      </c>
+      <c r="J274" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>273</v>
       </c>
@@ -11184,8 +14261,15 @@
       <c r="H275" s="22">
         <v>18</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I275" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-273.pdf</v>
+      </c>
+      <c r="J275" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>274</v>
       </c>
@@ -11210,8 +14294,15 @@
       <c r="H276" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I276" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-274.pdf</v>
+      </c>
+      <c r="J276" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>275</v>
       </c>
@@ -11236,8 +14327,15 @@
       <c r="H277" s="22">
         <v>14</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I277" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-275.pdf</v>
+      </c>
+      <c r="J277" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>276</v>
       </c>
@@ -11262,8 +14360,15 @@
       <c r="H278" s="23">
         <v>7</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I278" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-276.pdf</v>
+      </c>
+      <c r="J278" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>277</v>
       </c>
@@ -11288,8 +14393,15 @@
       <c r="H279" s="22">
         <v>22</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I279" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-277.pdf</v>
+      </c>
+      <c r="J279" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>278</v>
       </c>
@@ -11314,8 +14426,15 @@
       <c r="H280" s="22">
         <v>11</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I280" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-278.pdf</v>
+      </c>
+      <c r="J280" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>279</v>
       </c>
@@ -11340,8 +14459,15 @@
       <c r="H281" s="22">
         <v>17</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I281" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-279.pdf</v>
+      </c>
+      <c r="J281" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>280</v>
       </c>
@@ -11366,8 +14492,15 @@
       <c r="H282" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I282" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-280.pdf</v>
+      </c>
+      <c r="J282" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>281</v>
       </c>
@@ -11392,8 +14525,15 @@
       <c r="H283" s="23">
         <v>9</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I283" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-281.pdf</v>
+      </c>
+      <c r="J283" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>282</v>
       </c>
@@ -11418,8 +14558,15 @@
       <c r="H284" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I284" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-282.pdf</v>
+      </c>
+      <c r="J284" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>283</v>
       </c>
@@ -11444,8 +14591,15 @@
       <c r="H285" s="22">
         <v>14</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I285" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-283.pdf</v>
+      </c>
+      <c r="J285" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>284</v>
       </c>
@@ -11470,8 +14624,15 @@
       <c r="H286" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I286" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-284.pdf</v>
+      </c>
+      <c r="J286" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>285</v>
       </c>
@@ -11496,8 +14657,15 @@
       <c r="H287" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I287" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-285.pdf</v>
+      </c>
+      <c r="J287" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>286</v>
       </c>
@@ -11522,8 +14690,15 @@
       <c r="H288" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I288" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-286.pdf</v>
+      </c>
+      <c r="J288" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>287</v>
       </c>
@@ -11548,8 +14723,15 @@
       <c r="H289" s="22">
         <v>18</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I289" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-287.pdf</v>
+      </c>
+      <c r="J289" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>288</v>
       </c>
@@ -11574,8 +14756,15 @@
       <c r="H290" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I290" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-288.pdf</v>
+      </c>
+      <c r="J290" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>289</v>
       </c>
@@ -11600,8 +14789,15 @@
       <c r="H291" s="23">
         <v>9</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I291" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-289.pdf</v>
+      </c>
+      <c r="J291" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>290</v>
       </c>
@@ -11626,8 +14822,15 @@
       <c r="H292" s="22">
         <v>12</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I292" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-290.pdf</v>
+      </c>
+      <c r="J292" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>291</v>
       </c>
@@ -11652,8 +14855,15 @@
       <c r="H293" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I293" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-291.pdf</v>
+      </c>
+      <c r="J293" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>292</v>
       </c>
@@ -11678,8 +14888,15 @@
       <c r="H294" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I294" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-292.pdf</v>
+      </c>
+      <c r="J294" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>293</v>
       </c>
@@ -11704,8 +14921,15 @@
       <c r="H295" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I295" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-293.pdf</v>
+      </c>
+      <c r="J295" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>294</v>
       </c>
@@ -11730,8 +14954,15 @@
       <c r="H296" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I296" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-294.pdf</v>
+      </c>
+      <c r="J296" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>295</v>
       </c>
@@ -11756,8 +14987,15 @@
       <c r="H297" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I297" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-295.pdf</v>
+      </c>
+      <c r="J297" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>296</v>
       </c>
@@ -11782,8 +15020,15 @@
       <c r="H298" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I298" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-296.pdf</v>
+      </c>
+      <c r="J298" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>297</v>
       </c>
@@ -11808,8 +15053,15 @@
       <c r="H299" s="22">
         <v>21</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I299" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-297.pdf</v>
+      </c>
+      <c r="J299" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>298</v>
       </c>
@@ -11834,8 +15086,15 @@
       <c r="H300" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I300" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-298.pdf</v>
+      </c>
+      <c r="J300" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <v>299</v>
       </c>
@@ -11860,8 +15119,15 @@
       <c r="H301" s="23">
         <v>7</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I301" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-299.pdf</v>
+      </c>
+      <c r="J301" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <v>300</v>
       </c>
@@ -11886,8 +15152,15 @@
       <c r="H302" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I302" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-300.pdf</v>
+      </c>
+      <c r="J302" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>301</v>
       </c>
@@ -11912,8 +15185,15 @@
       <c r="H303" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I303" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-301.pdf</v>
+      </c>
+      <c r="J303" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <v>302</v>
       </c>
@@ -11938,8 +15218,15 @@
       <c r="H304" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I304" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-302.pdf</v>
+      </c>
+      <c r="J304" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <v>303</v>
       </c>
@@ -11964,8 +15251,15 @@
       <c r="H305" s="22">
         <v>12</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I305" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-303.pdf</v>
+      </c>
+      <c r="J305" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>304</v>
       </c>
@@ -11990,8 +15284,15 @@
       <c r="H306" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I306" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-304.pdf</v>
+      </c>
+      <c r="J306" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>305</v>
       </c>
@@ -12016,8 +15317,15 @@
       <c r="H307" s="22">
         <v>84</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I307" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-305.pdf</v>
+      </c>
+      <c r="J307" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>306</v>
       </c>
@@ -12042,8 +15350,15 @@
       <c r="H308" s="22">
         <v>13</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I308" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-306.pdf</v>
+      </c>
+      <c r="J308" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <v>307</v>
       </c>
@@ -12068,8 +15383,15 @@
       <c r="H309" s="22">
         <v>29</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I309" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-307.pdf</v>
+      </c>
+      <c r="J309" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4">
         <v>308</v>
       </c>
@@ -12094,8 +15416,15 @@
       <c r="H310" s="22">
         <v>12</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I310" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-308.pdf</v>
+      </c>
+      <c r="J310" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <v>309</v>
       </c>
@@ -12120,8 +15449,15 @@
       <c r="H311" s="22">
         <v>26</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I311" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-309.pdf</v>
+      </c>
+      <c r="J311" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <v>310</v>
       </c>
@@ -12146,8 +15482,15 @@
       <c r="H312" s="22">
         <v>12</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I312" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-310.pdf</v>
+      </c>
+      <c r="J312" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <v>311</v>
       </c>
@@ -12172,8 +15515,15 @@
       <c r="H313" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I313" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-311.pdf</v>
+      </c>
+      <c r="J313" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
         <v>312</v>
       </c>
@@ -12198,8 +15548,15 @@
       <c r="H314" s="22">
         <v>19</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I314" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-312.pdf</v>
+      </c>
+      <c r="J314" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <v>313</v>
       </c>
@@ -12224,8 +15581,15 @@
       <c r="H315" s="22">
         <v>43</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I315" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-313.pdf</v>
+      </c>
+      <c r="J315" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4">
         <v>314</v>
       </c>
@@ -12250,8 +15614,15 @@
       <c r="H316" s="22">
         <v>18</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I316" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-314.pdf</v>
+      </c>
+      <c r="J316" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4">
         <v>315</v>
       </c>
@@ -12276,8 +15647,15 @@
       <c r="H317" s="22">
         <v>28</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I317" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-315.pdf</v>
+      </c>
+      <c r="J317" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
         <v>316</v>
       </c>
@@ -12302,8 +15680,15 @@
       <c r="H318" s="23">
         <v>9</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I318" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-316.pdf</v>
+      </c>
+      <c r="J318" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <v>317</v>
       </c>
@@ -12328,8 +15713,15 @@
       <c r="H319" s="22">
         <v>11</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I319" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-317.pdf</v>
+      </c>
+      <c r="J319" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <v>318</v>
       </c>
@@ -12354,8 +15746,15 @@
       <c r="H320" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I320" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-318.pdf</v>
+      </c>
+      <c r="J320" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <v>319</v>
       </c>
@@ -12380,8 +15779,15 @@
       <c r="H321" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I321" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-319.pdf</v>
+      </c>
+      <c r="J321" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <v>320</v>
       </c>
@@ -12406,8 +15812,15 @@
       <c r="H322" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I322" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-320.pdf</v>
+      </c>
+      <c r="J322" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>321</v>
       </c>
@@ -12432,8 +15845,15 @@
       <c r="H323" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I323" t="str">
+        <f t="shared" si="4"/>
+        <v>NA47/NA47-321.pdf</v>
+      </c>
+      <c r="J323" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <v>322</v>
       </c>
@@ -12458,8 +15878,15 @@
       <c r="H324" s="22">
         <v>14</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I324" t="str">
+        <f t="shared" ref="I324:I387" si="5">J324 &amp;".pdf"</f>
+        <v>NA47/NA47-322.pdf</v>
+      </c>
+      <c r="J324" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4">
         <v>323</v>
       </c>
@@ -12484,8 +15911,15 @@
       <c r="H325" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I325" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-323.pdf</v>
+      </c>
+      <c r="J325" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <v>324</v>
       </c>
@@ -12510,8 +15944,15 @@
       <c r="H326" s="22">
         <v>22</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I326" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-324.pdf</v>
+      </c>
+      <c r="J326" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <v>325</v>
       </c>
@@ -12536,8 +15977,15 @@
       <c r="H327" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I327" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-325.pdf</v>
+      </c>
+      <c r="J327" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4">
         <v>326</v>
       </c>
@@ -12562,8 +16010,15 @@
       <c r="H328" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I328" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-326.pdf</v>
+      </c>
+      <c r="J328" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <v>327</v>
       </c>
@@ -12588,8 +16043,15 @@
       <c r="H329" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I329" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-327.pdf</v>
+      </c>
+      <c r="J329" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <v>328</v>
       </c>
@@ -12614,8 +16076,15 @@
       <c r="H330" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I330" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-328.pdf</v>
+      </c>
+      <c r="J330" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <v>329</v>
       </c>
@@ -12640,8 +16109,15 @@
       <c r="H331" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I331" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-329.pdf</v>
+      </c>
+      <c r="J331" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <v>330</v>
       </c>
@@ -12666,8 +16142,15 @@
       <c r="H332" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I332" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-330.pdf</v>
+      </c>
+      <c r="J332" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <v>331</v>
       </c>
@@ -12692,8 +16175,15 @@
       <c r="H333" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I333" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-331.pdf</v>
+      </c>
+      <c r="J333" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <v>332</v>
       </c>
@@ -12718,8 +16208,15 @@
       <c r="H334" s="23">
         <v>9</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I334" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-332.pdf</v>
+      </c>
+      <c r="J334" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <v>333</v>
       </c>
@@ -12744,8 +16241,15 @@
       <c r="H335" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I335" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-333.pdf</v>
+      </c>
+      <c r="J335" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <v>334</v>
       </c>
@@ -12770,8 +16274,15 @@
       <c r="H336" s="22">
         <v>17</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I336" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-334.pdf</v>
+      </c>
+      <c r="J336" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
         <v>335</v>
       </c>
@@ -12796,8 +16307,15 @@
       <c r="H337" s="23">
         <v>9</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I337" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-335.pdf</v>
+      </c>
+      <c r="J337" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>336</v>
       </c>
@@ -12822,8 +16340,15 @@
       <c r="H338" s="22">
         <v>16</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I338" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-336.pdf</v>
+      </c>
+      <c r="J338" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <v>337</v>
       </c>
@@ -12848,8 +16373,15 @@
       <c r="H339" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I339" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-337.pdf</v>
+      </c>
+      <c r="J339" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <v>338</v>
       </c>
@@ -12874,8 +16406,15 @@
       <c r="H340" s="22">
         <v>18</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I340" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-338.pdf</v>
+      </c>
+      <c r="J340" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>339</v>
       </c>
@@ -12900,8 +16439,15 @@
       <c r="H341" s="22">
         <v>11</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I341" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-339.pdf</v>
+      </c>
+      <c r="J341" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <v>340</v>
       </c>
@@ -12926,8 +16472,15 @@
       <c r="H342" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I342" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-340.pdf</v>
+      </c>
+      <c r="J342" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>341</v>
       </c>
@@ -12952,8 +16505,15 @@
       <c r="H343" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I343" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-341.pdf</v>
+      </c>
+      <c r="J343" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <v>342</v>
       </c>
@@ -12978,8 +16538,15 @@
       <c r="H344" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I344" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-342.pdf</v>
+      </c>
+      <c r="J344" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <v>343</v>
       </c>
@@ -13004,8 +16571,15 @@
       <c r="H345" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I345" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-343.pdf</v>
+      </c>
+      <c r="J345" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4">
         <v>344</v>
       </c>
@@ -13030,8 +16604,15 @@
       <c r="H346" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I346" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-344.pdf</v>
+      </c>
+      <c r="J346" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4">
         <v>345</v>
       </c>
@@ -13056,8 +16637,15 @@
       <c r="H347" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I347" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-345.pdf</v>
+      </c>
+      <c r="J347" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <v>346</v>
       </c>
@@ -13082,8 +16670,15 @@
       <c r="H348" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I348" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-346.pdf</v>
+      </c>
+      <c r="J348" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <v>347</v>
       </c>
@@ -13108,8 +16703,15 @@
       <c r="H349" s="22">
         <v>35</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I349" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-347.pdf</v>
+      </c>
+      <c r="J349" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>348</v>
       </c>
@@ -13134,8 +16736,15 @@
       <c r="H350" s="22">
         <v>16</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I350" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-348.pdf</v>
+      </c>
+      <c r="J350" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <v>349</v>
       </c>
@@ -13160,8 +16769,15 @@
       <c r="H351" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I351" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-349.pdf</v>
+      </c>
+      <c r="J351" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <v>350</v>
       </c>
@@ -13186,8 +16802,15 @@
       <c r="H352" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I352" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-350.pdf</v>
+      </c>
+      <c r="J352" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <v>351</v>
       </c>
@@ -13212,8 +16835,15 @@
       <c r="H353" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I353" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-351.pdf</v>
+      </c>
+      <c r="J353" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <v>352</v>
       </c>
@@ -13238,8 +16868,15 @@
       <c r="H354" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I354" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-352.pdf</v>
+      </c>
+      <c r="J354" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <v>353</v>
       </c>
@@ -13264,8 +16901,15 @@
       <c r="H355" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I355" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-353.pdf</v>
+      </c>
+      <c r="J355" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <v>354</v>
       </c>
@@ -13290,8 +16934,15 @@
       <c r="H356" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I356" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-354.pdf</v>
+      </c>
+      <c r="J356" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4">
         <v>355</v>
       </c>
@@ -13316,8 +16967,15 @@
       <c r="H357" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I357" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-355.pdf</v>
+      </c>
+      <c r="J357" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4">
         <v>356</v>
       </c>
@@ -13342,8 +17000,15 @@
       <c r="H358" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I358" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-356.pdf</v>
+      </c>
+      <c r="J358" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4">
         <v>357</v>
       </c>
@@ -13368,8 +17033,15 @@
       <c r="H359" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I359" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-357.pdf</v>
+      </c>
+      <c r="J359" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4">
         <v>358</v>
       </c>
@@ -13394,8 +17066,15 @@
       <c r="H360" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I360" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-358.pdf</v>
+      </c>
+      <c r="J360" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4">
         <v>359</v>
       </c>
@@ -13420,8 +17099,15 @@
       <c r="H361" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I361" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-359.pdf</v>
+      </c>
+      <c r="J361" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <v>360</v>
       </c>
@@ -13446,8 +17132,15 @@
       <c r="H362" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I362" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-360.pdf</v>
+      </c>
+      <c r="J362" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4">
         <v>361</v>
       </c>
@@ -13472,8 +17165,15 @@
       <c r="H363" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I363" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-361.pdf</v>
+      </c>
+      <c r="J363" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <v>362</v>
       </c>
@@ -13498,8 +17198,15 @@
       <c r="H364" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I364" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-362.pdf</v>
+      </c>
+      <c r="J364" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <v>363</v>
       </c>
@@ -13524,8 +17231,15 @@
       <c r="H365" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I365" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-363.pdf</v>
+      </c>
+      <c r="J365" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <v>364</v>
       </c>
@@ -13550,8 +17264,15 @@
       <c r="H366" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I366" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-364.pdf</v>
+      </c>
+      <c r="J366" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4">
         <v>365</v>
       </c>
@@ -13576,8 +17297,15 @@
       <c r="H367" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I367" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-365.pdf</v>
+      </c>
+      <c r="J367" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
         <v>366</v>
       </c>
@@ -13602,8 +17330,15 @@
       <c r="H368" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I368" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-366.pdf</v>
+      </c>
+      <c r="J368" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>367</v>
       </c>
@@ -13628,8 +17363,15 @@
       <c r="H369" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I369" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-367.pdf</v>
+      </c>
+      <c r="J369" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>368</v>
       </c>
@@ -13654,8 +17396,15 @@
       <c r="H370" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I370" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-368.pdf</v>
+      </c>
+      <c r="J370" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>369</v>
       </c>
@@ -13680,8 +17429,15 @@
       <c r="H371" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I371" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-369.pdf</v>
+      </c>
+      <c r="J371" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>370</v>
       </c>
@@ -13706,8 +17462,15 @@
       <c r="H372" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I372" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-370.pdf</v>
+      </c>
+      <c r="J372" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>371</v>
       </c>
@@ -13732,8 +17495,15 @@
       <c r="H373" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I373" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-371.pdf</v>
+      </c>
+      <c r="J373" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>372</v>
       </c>
@@ -13758,8 +17528,15 @@
       <c r="H374" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I374" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-372.pdf</v>
+      </c>
+      <c r="J374" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>373</v>
       </c>
@@ -13784,8 +17561,15 @@
       <c r="H375" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I375" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-373.pdf</v>
+      </c>
+      <c r="J375" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>374</v>
       </c>
@@ -13810,8 +17594,15 @@
       <c r="H376" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I376" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-374.pdf</v>
+      </c>
+      <c r="J376" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>375</v>
       </c>
@@ -13836,8 +17627,15 @@
       <c r="H377" s="22">
         <v>17</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I377" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-375.pdf</v>
+      </c>
+      <c r="J377" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>376</v>
       </c>
@@ -13862,8 +17660,15 @@
       <c r="H378" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I378" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-376.pdf</v>
+      </c>
+      <c r="J378" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>377</v>
       </c>
@@ -13888,8 +17693,15 @@
       <c r="H379" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I379" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-377.pdf</v>
+      </c>
+      <c r="J379" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>378</v>
       </c>
@@ -13914,8 +17726,15 @@
       <c r="H380" s="22">
         <v>19</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I380" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-378.pdf</v>
+      </c>
+      <c r="J380" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>379</v>
       </c>
@@ -13940,8 +17759,15 @@
       <c r="H381" s="23">
         <v>7</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I381" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-379.pdf</v>
+      </c>
+      <c r="J381" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>380</v>
       </c>
@@ -13966,8 +17792,15 @@
       <c r="H382" s="23">
         <v>7</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I382" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-380.pdf</v>
+      </c>
+      <c r="J382" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <v>381</v>
       </c>
@@ -13992,8 +17825,15 @@
       <c r="H383" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I383" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-381.pdf</v>
+      </c>
+      <c r="J383" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>382</v>
       </c>
@@ -14018,8 +17858,15 @@
       <c r="H384" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I384" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-382.pdf</v>
+      </c>
+      <c r="J384" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <v>383</v>
       </c>
@@ -14044,8 +17891,15 @@
       <c r="H385" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I385" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-383.pdf</v>
+      </c>
+      <c r="J385" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <v>384</v>
       </c>
@@ -14070,8 +17924,15 @@
       <c r="H386" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I386" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-384.pdf</v>
+      </c>
+      <c r="J386" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
         <v>385</v>
       </c>
@@ -14096,8 +17957,15 @@
       <c r="H387" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I387" t="str">
+        <f t="shared" si="5"/>
+        <v>NA47/NA47-385.pdf</v>
+      </c>
+      <c r="J387" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
         <v>386</v>
       </c>
@@ -14122,8 +17990,15 @@
       <c r="H388" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I388" t="str">
+        <f t="shared" ref="I388:I389" si="6">J388 &amp;".pdf"</f>
+        <v>NA47/NA47-386.pdf</v>
+      </c>
+      <c r="J388" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <v>387</v>
       </c>
@@ -14148,8 +18023,16 @@
       <c r="H389" s="23">
         <v>2</v>
       </c>
+      <c r="I389" t="str">
+        <f t="shared" si="6"/>
+        <v>NA47/NA47-387.pdf</v>
+      </c>
+      <c r="J389" t="s">
+        <v>740</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/assets/xls/NAT/47.xlsx
+++ b/assets/xls/NAT/47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\form45\assets\xls\NAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0B7C6D-59EC-4AF9-85AD-DF1AA225C124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856A4E5B-1BE1-4C50-B8B1-E3CA7641EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="731">
   <si>
     <r>
       <rPr>
@@ -3591,15 +3591,6 @@
     <t>NA47/NA47-34</t>
   </si>
   <si>
-    <t>NA47/NA47-35</t>
-  </si>
-  <si>
-    <t>NA47/NA47-36</t>
-  </si>
-  <si>
-    <t>NA47/NA47-37</t>
-  </si>
-  <si>
     <t>NA47/NA47-38</t>
   </si>
   <si>
@@ -3663,9 +3654,6 @@
     <t>NA47/NA47-58</t>
   </si>
   <si>
-    <t>NA47/NA47-59</t>
-  </si>
-  <si>
     <t>NA47/NA47-60</t>
   </si>
   <si>
@@ -3693,9 +3681,6 @@
     <t>NA47/NA47-68</t>
   </si>
   <si>
-    <t>NA47/NA47-69</t>
-  </si>
-  <si>
     <t>NA47/NA47-70</t>
   </si>
   <si>
@@ -3921,9 +3906,6 @@
     <t>NA47/NA47-144</t>
   </si>
   <si>
-    <t>NA47/NA47-145</t>
-  </si>
-  <si>
     <t>NA47/NA47-146</t>
   </si>
   <si>
@@ -4053,9 +4035,6 @@
     <t>NA47/NA47-188</t>
   </si>
   <si>
-    <t>NA47/NA47-189</t>
-  </si>
-  <si>
     <t>NA47/NA47-190</t>
   </si>
   <si>
@@ -4173,9 +4152,6 @@
     <t>NA47/NA47-228</t>
   </si>
   <si>
-    <t>NA47/NA47-229</t>
-  </si>
-  <si>
     <t>NA47/NA47-230</t>
   </si>
   <si>
@@ -4188,9 +4164,6 @@
     <t>NA47/NA47-233</t>
   </si>
   <si>
-    <t>NA47/NA47-234</t>
-  </si>
-  <si>
     <t>NA47/NA47-235</t>
   </si>
   <si>
@@ -4234,9 +4207,6 @@
   </si>
   <si>
     <t>NA47/NA47-249</t>
-  </si>
-  <si>
-    <t>NA47/NA47-250</t>
   </si>
   <si>
     <t>NA47/NA47-251</t>
@@ -4775,7 +4745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4873,6 +4843,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5181,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C485" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K243" sqref="K243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6110,10 +6083,7 @@
       <c r="H28" s="3">
         <v>61</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>NA47/NA47-26.pdf</v>
-      </c>
+      <c r="I28" s="33"/>
       <c r="J28" t="s">
         <v>379</v>
       </c>
@@ -6275,10 +6245,7 @@
       <c r="H33" s="3">
         <v>12</v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>NA47/NA47-31.pdf</v>
-      </c>
+      <c r="I33" s="33"/>
       <c r="J33" t="s">
         <v>384</v>
       </c>
@@ -6407,13 +6374,6 @@
       <c r="H37" s="5">
         <v>41</v>
       </c>
-      <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>NA47/NA47-35.pdf</v>
-      </c>
-      <c r="J37" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
@@ -6440,13 +6400,6 @@
       <c r="H38" s="5">
         <v>17</v>
       </c>
-      <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>NA47/NA47-36.pdf</v>
-      </c>
-      <c r="J38" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
@@ -6473,13 +6426,6 @@
       <c r="H39" s="3">
         <v>99</v>
       </c>
-      <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>NA47/NA47-37.pdf</v>
-      </c>
-      <c r="J39" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
@@ -6511,7 +6457,7 @@
         <v>NA47/NA47-38.pdf</v>
       </c>
       <c r="J40" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6544,7 +6490,7 @@
         <v>NA47/NA47-39.pdf</v>
       </c>
       <c r="J41" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6577,7 +6523,7 @@
         <v>NA47/NA47-40.pdf</v>
       </c>
       <c r="J42" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6610,7 +6556,7 @@
         <v>NA47/NA47-41.pdf</v>
       </c>
       <c r="J43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6643,7 +6589,7 @@
         <v>NA47/NA47-42.pdf</v>
       </c>
       <c r="J44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6676,7 +6622,7 @@
         <v>NA47/NA47-43.pdf</v>
       </c>
       <c r="J45" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6709,7 +6655,7 @@
         <v>NA47/NA47-44.pdf</v>
       </c>
       <c r="J46" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6742,7 +6688,7 @@
         <v>NA47/NA47-45.pdf</v>
       </c>
       <c r="J47" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6775,7 +6721,7 @@
         <v>NA47/NA47-46.pdf</v>
       </c>
       <c r="J48" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6808,7 +6754,7 @@
         <v>NA47/NA47-47.pdf</v>
       </c>
       <c r="J49" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6841,7 +6787,7 @@
         <v>NA47/NA47-48.pdf</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6874,7 +6820,7 @@
         <v>NA47/NA47-49.pdf</v>
       </c>
       <c r="J51" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6907,7 +6853,7 @@
         <v>NA47/NA47-50.pdf</v>
       </c>
       <c r="J52" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6940,7 +6886,7 @@
         <v>NA47/NA47-51.pdf</v>
       </c>
       <c r="J53" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6973,7 +6919,7 @@
         <v>NA47/NA47-52.pdf</v>
       </c>
       <c r="J54" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7006,7 +6952,7 @@
         <v>NA47/NA47-53.pdf</v>
       </c>
       <c r="J55" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7039,7 +6985,7 @@
         <v>NA47/NA47-54.pdf</v>
       </c>
       <c r="J56" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7072,7 +7018,7 @@
         <v>NA47/NA47-55.pdf</v>
       </c>
       <c r="J57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7105,7 +7051,7 @@
         <v>NA47/NA47-56.pdf</v>
       </c>
       <c r="J58" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7138,7 +7084,7 @@
         <v>NA47/NA47-57.pdf</v>
       </c>
       <c r="J59" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7171,7 +7117,7 @@
         <v>NA47/NA47-58.pdf</v>
       </c>
       <c r="J60" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7199,13 +7145,6 @@
       <c r="H61" s="3">
         <v>36</v>
       </c>
-      <c r="I61" t="str">
-        <f t="shared" si="0"/>
-        <v>NA47/NA47-59.pdf</v>
-      </c>
-      <c r="J61" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
@@ -7237,7 +7176,7 @@
         <v>NA47/NA47-60.pdf</v>
       </c>
       <c r="J62" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7270,7 +7209,7 @@
         <v>NA47/NA47-61.pdf</v>
       </c>
       <c r="J63" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7303,7 +7242,7 @@
         <v>NA47/NA47-62.pdf</v>
       </c>
       <c r="J64" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7336,7 +7275,7 @@
         <v>NA47/NA47-63.pdf</v>
       </c>
       <c r="J65" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7369,7 +7308,7 @@
         <v>NA47/NA47-64.pdf</v>
       </c>
       <c r="J66" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7402,7 +7341,7 @@
         <v>NA47/NA47-65.pdf</v>
       </c>
       <c r="J67" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7435,7 +7374,7 @@
         <v>NA47/NA47-66.pdf</v>
       </c>
       <c r="J68" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7468,7 +7407,7 @@
         <v>NA47/NA47-67.pdf</v>
       </c>
       <c r="J69" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7501,7 +7440,7 @@
         <v>NA47/NA47-68.pdf</v>
       </c>
       <c r="J70" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7529,13 +7468,6 @@
       <c r="H71" s="5">
         <v>57</v>
       </c>
-      <c r="I71" t="str">
-        <f t="shared" si="1"/>
-        <v>NA47/NA47-69.pdf</v>
-      </c>
-      <c r="J71" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="72" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
@@ -7567,7 +7499,7 @@
         <v>NA47/NA47-70.pdf</v>
       </c>
       <c r="J72" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7600,7 +7532,7 @@
         <v>NA47/NA47-71.pdf</v>
       </c>
       <c r="J73" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7633,7 +7565,7 @@
         <v>NA47/NA47-72.pdf</v>
       </c>
       <c r="J74" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7666,7 +7598,7 @@
         <v>NA47/NA47-73.pdf</v>
       </c>
       <c r="J75" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7699,7 +7631,7 @@
         <v>NA47/NA47-74.pdf</v>
       </c>
       <c r="J76" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7732,7 +7664,7 @@
         <v>NA47/NA47-75.pdf</v>
       </c>
       <c r="J77" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7765,7 +7697,7 @@
         <v>NA47/NA47-76.pdf</v>
       </c>
       <c r="J78" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7798,7 +7730,7 @@
         <v>NA47/NA47-77.pdf</v>
       </c>
       <c r="J79" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7831,7 +7763,7 @@
         <v>NA47/NA47-78.pdf</v>
       </c>
       <c r="J80" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7864,7 +7796,7 @@
         <v>NA47/NA47-79.pdf</v>
       </c>
       <c r="J81" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7897,7 +7829,7 @@
         <v>NA47/NA47-80.pdf</v>
       </c>
       <c r="J82" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7930,7 +7862,7 @@
         <v>NA47/NA47-81.pdf</v>
       </c>
       <c r="J83" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7963,7 +7895,7 @@
         <v>NA47/NA47-82.pdf</v>
       </c>
       <c r="J84" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7996,7 +7928,7 @@
         <v>NA47/NA47-83.pdf</v>
       </c>
       <c r="J85" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8029,7 +7961,7 @@
         <v>NA47/NA47-84.pdf</v>
       </c>
       <c r="J86" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8062,7 +7994,7 @@
         <v>NA47/NA47-85.pdf</v>
       </c>
       <c r="J87" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8095,7 +8027,7 @@
         <v>NA47/NA47-86.pdf</v>
       </c>
       <c r="J88" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8128,7 +8060,7 @@
         <v>NA47/NA47-87.pdf</v>
       </c>
       <c r="J89" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8161,7 +8093,7 @@
         <v>NA47/NA47-88.pdf</v>
       </c>
       <c r="J90" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8194,7 +8126,7 @@
         <v>NA47/NA47-89.pdf</v>
       </c>
       <c r="J91" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8227,7 +8159,7 @@
         <v>NA47/NA47-90.pdf</v>
       </c>
       <c r="J92" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8260,7 +8192,7 @@
         <v>NA47/NA47-91.pdf</v>
       </c>
       <c r="J93" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8293,7 +8225,7 @@
         <v>NA47/NA47-92.pdf</v>
       </c>
       <c r="J94" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8326,7 +8258,7 @@
         <v>NA47/NA47-93.pdf</v>
       </c>
       <c r="J95" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8359,7 +8291,7 @@
         <v>NA47/NA47-94.pdf</v>
       </c>
       <c r="J96" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8392,7 +8324,7 @@
         <v>NA47/NA47-95.pdf</v>
       </c>
       <c r="J97" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8425,7 +8357,7 @@
         <v>NA47/NA47-96.pdf</v>
       </c>
       <c r="J98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8458,7 +8390,7 @@
         <v>NA47/NA47-97.pdf</v>
       </c>
       <c r="J99" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8491,7 +8423,7 @@
         <v>NA47/NA47-98.pdf</v>
       </c>
       <c r="J100" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8524,7 +8456,7 @@
         <v>NA47/NA47-99.pdf</v>
       </c>
       <c r="J101" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8557,7 +8489,7 @@
         <v>NA47/NA47-100.pdf</v>
       </c>
       <c r="J102" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8590,7 +8522,7 @@
         <v>NA47/NA47-101.pdf</v>
       </c>
       <c r="J103" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8623,7 +8555,7 @@
         <v>NA47/NA47-102.pdf</v>
       </c>
       <c r="J104" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8656,7 +8588,7 @@
         <v>NA47/NA47-103.pdf</v>
       </c>
       <c r="J105" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8689,7 +8621,7 @@
         <v>NA47/NA47-104.pdf</v>
       </c>
       <c r="J106" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8722,7 +8654,7 @@
         <v>NA47/NA47-105.pdf</v>
       </c>
       <c r="J107" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8755,7 +8687,7 @@
         <v>NA47/NA47-106.pdf</v>
       </c>
       <c r="J108" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8788,7 +8720,7 @@
         <v>NA47/NA47-107.pdf</v>
       </c>
       <c r="J109" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8821,7 +8753,7 @@
         <v>NA47/NA47-108.pdf</v>
       </c>
       <c r="J110" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8854,7 +8786,7 @@
         <v>NA47/NA47-109.pdf</v>
       </c>
       <c r="J111" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8887,7 +8819,7 @@
         <v>NA47/NA47-110.pdf</v>
       </c>
       <c r="J112" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8920,7 +8852,7 @@
         <v>NA47/NA47-111.pdf</v>
       </c>
       <c r="J113" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8953,7 +8885,7 @@
         <v>NA47/NA47-112.pdf</v>
       </c>
       <c r="J114" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8986,7 +8918,7 @@
         <v>NA47/NA47-113.pdf</v>
       </c>
       <c r="J115" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9019,7 +8951,7 @@
         <v>NA47/NA47-114.pdf</v>
       </c>
       <c r="J116" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9052,7 +8984,7 @@
         <v>NA47/NA47-115.pdf</v>
       </c>
       <c r="J117" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9085,7 +9017,7 @@
         <v>NA47/NA47-116.pdf</v>
       </c>
       <c r="J118" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9118,7 +9050,7 @@
         <v>NA47/NA47-117.pdf</v>
       </c>
       <c r="J119" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9151,7 +9083,7 @@
         <v>NA47/NA47-118.pdf</v>
       </c>
       <c r="J120" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9184,7 +9116,7 @@
         <v>NA47/NA47-119.pdf</v>
       </c>
       <c r="J121" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9217,7 +9149,7 @@
         <v>NA47/NA47-120.pdf</v>
       </c>
       <c r="J122" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9250,7 +9182,7 @@
         <v>NA47/NA47-121.pdf</v>
       </c>
       <c r="J123" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9283,7 +9215,7 @@
         <v>NA47/NA47-122.pdf</v>
       </c>
       <c r="J124" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9316,7 +9248,7 @@
         <v>NA47/NA47-123.pdf</v>
       </c>
       <c r="J125" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9349,7 +9281,7 @@
         <v>NA47/NA47-124.pdf</v>
       </c>
       <c r="J126" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9382,7 +9314,7 @@
         <v>NA47/NA47-125.pdf</v>
       </c>
       <c r="J127" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9415,7 +9347,7 @@
         <v>NA47/NA47-126.pdf</v>
       </c>
       <c r="J128" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9448,7 +9380,7 @@
         <v>NA47/NA47-127.pdf</v>
       </c>
       <c r="J129" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9481,7 +9413,7 @@
         <v>NA47/NA47-128.pdf</v>
       </c>
       <c r="J130" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9514,7 +9446,7 @@
         <v>NA47/NA47-129.pdf</v>
       </c>
       <c r="J131" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9547,7 +9479,7 @@
         <v>NA47/NA47-130.pdf</v>
       </c>
       <c r="J132" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9580,7 +9512,7 @@
         <v>NA47/NA47-131.pdf</v>
       </c>
       <c r="J133" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9613,7 +9545,7 @@
         <v>NA47/NA47-132.pdf</v>
       </c>
       <c r="J134" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9646,7 +9578,7 @@
         <v>NA47/NA47-133.pdf</v>
       </c>
       <c r="J135" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9679,7 +9611,7 @@
         <v>NA47/NA47-134.pdf</v>
       </c>
       <c r="J136" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9712,7 +9644,7 @@
         <v>NA47/NA47-135.pdf</v>
       </c>
       <c r="J137" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9745,7 +9677,7 @@
         <v>NA47/NA47-136.pdf</v>
       </c>
       <c r="J138" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9778,7 +9710,7 @@
         <v>NA47/NA47-137.pdf</v>
       </c>
       <c r="J139" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9811,7 +9743,7 @@
         <v>NA47/NA47-138.pdf</v>
       </c>
       <c r="J140" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9844,7 +9776,7 @@
         <v>NA47/NA47-139.pdf</v>
       </c>
       <c r="J141" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9877,7 +9809,7 @@
         <v>NA47/NA47-140.pdf</v>
       </c>
       <c r="J142" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9910,7 +9842,7 @@
         <v>NA47/NA47-141.pdf</v>
       </c>
       <c r="J143" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9943,7 +9875,7 @@
         <v>NA47/NA47-142.pdf</v>
       </c>
       <c r="J144" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9976,7 +9908,7 @@
         <v>NA47/NA47-143.pdf</v>
       </c>
       <c r="J145" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10009,7 +9941,7 @@
         <v>NA47/NA47-144.pdf</v>
       </c>
       <c r="J146" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10037,13 +9969,6 @@
       <c r="H147" s="5">
         <v>205</v>
       </c>
-      <c r="I147" t="str">
-        <f t="shared" si="2"/>
-        <v>NA47/NA47-145.pdf</v>
-      </c>
-      <c r="J147" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="148" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
@@ -10075,7 +10000,7 @@
         <v>NA47/NA47-146.pdf</v>
       </c>
       <c r="J148" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10108,7 +10033,7 @@
         <v>NA47/NA47-147.pdf</v>
       </c>
       <c r="J149" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10141,7 +10066,7 @@
         <v>NA47/NA47-148.pdf</v>
       </c>
       <c r="J150" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10174,7 +10099,7 @@
         <v>NA47/NA47-149.pdf</v>
       </c>
       <c r="J151" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10207,7 +10132,7 @@
         <v>NA47/NA47-150.pdf</v>
       </c>
       <c r="J152" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10240,7 +10165,7 @@
         <v>NA47/NA47-151.pdf</v>
       </c>
       <c r="J153" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10273,7 +10198,7 @@
         <v>NA47/NA47-152.pdf</v>
       </c>
       <c r="J154" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10306,7 +10231,7 @@
         <v>NA47/NA47-153.pdf</v>
       </c>
       <c r="J155" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10339,7 +10264,7 @@
         <v>NA47/NA47-154.pdf</v>
       </c>
       <c r="J156" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10372,7 +10297,7 @@
         <v>NA47/NA47-155.pdf</v>
       </c>
       <c r="J157" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10405,7 +10330,7 @@
         <v>NA47/NA47-156.pdf</v>
       </c>
       <c r="J158" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10438,7 +10363,7 @@
         <v>NA47/NA47-157.pdf</v>
       </c>
       <c r="J159" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10471,7 +10396,7 @@
         <v>NA47/NA47-158.pdf</v>
       </c>
       <c r="J160" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10504,7 +10429,7 @@
         <v>NA47/NA47-159.pdf</v>
       </c>
       <c r="J161" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10537,7 +10462,7 @@
         <v>NA47/NA47-160.pdf</v>
       </c>
       <c r="J162" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10570,7 +10495,7 @@
         <v>NA47/NA47-161.pdf</v>
       </c>
       <c r="J163" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10603,7 +10528,7 @@
         <v>NA47/NA47-162.pdf</v>
       </c>
       <c r="J164" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10636,7 +10561,7 @@
         <v>NA47/NA47-163.pdf</v>
       </c>
       <c r="J165" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10669,7 +10594,7 @@
         <v>NA47/NA47-164.pdf</v>
       </c>
       <c r="J166" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10702,7 +10627,7 @@
         <v>NA47/NA47-165.pdf</v>
       </c>
       <c r="J167" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10735,7 +10660,7 @@
         <v>NA47/NA47-166.pdf</v>
       </c>
       <c r="J168" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10768,7 +10693,7 @@
         <v>NA47/NA47-167.pdf</v>
       </c>
       <c r="J169" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10801,7 +10726,7 @@
         <v>NA47/NA47-168.pdf</v>
       </c>
       <c r="J170" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10834,7 +10759,7 @@
         <v>NA47/NA47-169.pdf</v>
       </c>
       <c r="J171" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10867,7 +10792,7 @@
         <v>NA47/NA47-170.pdf</v>
       </c>
       <c r="J172" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10900,7 +10825,7 @@
         <v>NA47/NA47-171.pdf</v>
       </c>
       <c r="J173" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10933,7 +10858,7 @@
         <v>NA47/NA47-172.pdf</v>
       </c>
       <c r="J174" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10966,7 +10891,7 @@
         <v>NA47/NA47-173.pdf</v>
       </c>
       <c r="J175" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10999,7 +10924,7 @@
         <v>NA47/NA47-174.pdf</v>
       </c>
       <c r="J176" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11032,7 +10957,7 @@
         <v>NA47/NA47-175.pdf</v>
       </c>
       <c r="J177" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11065,7 +10990,7 @@
         <v>NA47/NA47-176.pdf</v>
       </c>
       <c r="J178" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11098,7 +11023,7 @@
         <v>NA47/NA47-177.pdf</v>
       </c>
       <c r="J179" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11131,7 +11056,7 @@
         <v>NA47/NA47-178.pdf</v>
       </c>
       <c r="J180" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11164,7 +11089,7 @@
         <v>NA47/NA47-179.pdf</v>
       </c>
       <c r="J181" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11197,7 +11122,7 @@
         <v>NA47/NA47-180.pdf</v>
       </c>
       <c r="J182" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11230,7 +11155,7 @@
         <v>NA47/NA47-181.pdf</v>
       </c>
       <c r="J183" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11263,7 +11188,7 @@
         <v>NA47/NA47-182.pdf</v>
       </c>
       <c r="J184" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11296,7 +11221,7 @@
         <v>NA47/NA47-183.pdf</v>
       </c>
       <c r="J185" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11329,7 +11254,7 @@
         <v>NA47/NA47-184.pdf</v>
       </c>
       <c r="J186" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11362,7 +11287,7 @@
         <v>NA47/NA47-185.pdf</v>
       </c>
       <c r="J187" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11395,7 +11320,7 @@
         <v>NA47/NA47-186.pdf</v>
       </c>
       <c r="J188" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11428,7 +11353,7 @@
         <v>NA47/NA47-187.pdf</v>
       </c>
       <c r="J189" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11461,7 +11386,7 @@
         <v>NA47/NA47-188.pdf</v>
       </c>
       <c r="J190" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11489,13 +11414,6 @@
       <c r="H191" s="3">
         <v>58</v>
       </c>
-      <c r="I191" t="str">
-        <f t="shared" si="2"/>
-        <v>NA47/NA47-189.pdf</v>
-      </c>
-      <c r="J191" t="s">
-        <v>542</v>
-      </c>
     </row>
     <row r="192" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
@@ -11527,7 +11445,7 @@
         <v>NA47/NA47-190.pdf</v>
       </c>
       <c r="J192" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11560,7 +11478,7 @@
         <v>NA47/NA47-191.pdf</v>
       </c>
       <c r="J193" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11593,7 +11511,7 @@
         <v>NA47/NA47-192.pdf</v>
       </c>
       <c r="J194" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11626,7 +11544,7 @@
         <v>NA47/NA47-193.pdf</v>
       </c>
       <c r="J195" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11659,7 +11577,7 @@
         <v>NA47/NA47-194.pdf</v>
       </c>
       <c r="J196" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11692,7 +11610,7 @@
         <v>NA47/NA47-195.pdf</v>
       </c>
       <c r="J197" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11725,7 +11643,7 @@
         <v>NA47/NA47-196.pdf</v>
       </c>
       <c r="J198" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11758,7 +11676,7 @@
         <v>NA47/NA47-197.pdf</v>
       </c>
       <c r="J199" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11791,7 +11709,7 @@
         <v>NA47/NA47-198.pdf</v>
       </c>
       <c r="J200" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11824,7 +11742,7 @@
         <v>NA47/NA47-199.pdf</v>
       </c>
       <c r="J201" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11857,7 +11775,7 @@
         <v>NA47/NA47-200.pdf</v>
       </c>
       <c r="J202" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11890,7 +11808,7 @@
         <v>NA47/NA47-201.pdf</v>
       </c>
       <c r="J203" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11923,7 +11841,7 @@
         <v>NA47/NA47-202.pdf</v>
       </c>
       <c r="J204" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11956,7 +11874,7 @@
         <v>NA47/NA47-203.pdf</v>
       </c>
       <c r="J205" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11989,7 +11907,7 @@
         <v>NA47/NA47-204.pdf</v>
       </c>
       <c r="J206" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12022,7 +11940,7 @@
         <v>NA47/NA47-205.pdf</v>
       </c>
       <c r="J207" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12055,7 +11973,7 @@
         <v>NA47/NA47-206.pdf</v>
       </c>
       <c r="J208" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12088,7 +12006,7 @@
         <v>NA47/NA47-207.pdf</v>
       </c>
       <c r="J209" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12121,7 +12039,7 @@
         <v>NA47/NA47-208.pdf</v>
       </c>
       <c r="J210" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12154,7 +12072,7 @@
         <v>NA47/NA47-209.pdf</v>
       </c>
       <c r="J211" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12187,7 +12105,7 @@
         <v>NA47/NA47-210.pdf</v>
       </c>
       <c r="J212" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12220,7 +12138,7 @@
         <v>NA47/NA47-211.pdf</v>
       </c>
       <c r="J213" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12253,7 +12171,7 @@
         <v>NA47/NA47-212.pdf</v>
       </c>
       <c r="J214" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12286,7 +12204,7 @@
         <v>NA47/NA47-213.pdf</v>
       </c>
       <c r="J215" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12319,7 +12237,7 @@
         <v>NA47/NA47-214.pdf</v>
       </c>
       <c r="J216" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12352,7 +12270,7 @@
         <v>NA47/NA47-215.pdf</v>
       </c>
       <c r="J217" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12385,7 +12303,7 @@
         <v>NA47/NA47-216.pdf</v>
       </c>
       <c r="J218" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12418,7 +12336,7 @@
         <v>NA47/NA47-217.pdf</v>
       </c>
       <c r="J219" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12451,7 +12369,7 @@
         <v>NA47/NA47-218.pdf</v>
       </c>
       <c r="J220" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12484,7 +12402,7 @@
         <v>NA47/NA47-219.pdf</v>
       </c>
       <c r="J221" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12517,7 +12435,7 @@
         <v>NA47/NA47-220.pdf</v>
       </c>
       <c r="J222" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12550,7 +12468,7 @@
         <v>NA47/NA47-221.pdf</v>
       </c>
       <c r="J223" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12583,7 +12501,7 @@
         <v>NA47/NA47-222.pdf</v>
       </c>
       <c r="J224" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12616,7 +12534,7 @@
         <v>NA47/NA47-223.pdf</v>
       </c>
       <c r="J225" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12649,7 +12567,7 @@
         <v>NA47/NA47-224.pdf</v>
       </c>
       <c r="J226" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12682,7 +12600,7 @@
         <v>NA47/NA47-225.pdf</v>
       </c>
       <c r="J227" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12715,7 +12633,7 @@
         <v>NA47/NA47-226.pdf</v>
       </c>
       <c r="J228" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12748,7 +12666,7 @@
         <v>NA47/NA47-227.pdf</v>
       </c>
       <c r="J229" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12781,7 +12699,7 @@
         <v>NA47/NA47-228.pdf</v>
       </c>
       <c r="J230" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12809,13 +12727,6 @@
       <c r="H231" s="20">
         <v>25</v>
       </c>
-      <c r="I231" t="str">
-        <f t="shared" si="3"/>
-        <v>NA47/NA47-229.pdf</v>
-      </c>
-      <c r="J231" t="s">
-        <v>582</v>
-      </c>
     </row>
     <row r="232" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
@@ -12847,7 +12758,7 @@
         <v>NA47/NA47-230.pdf</v>
       </c>
       <c r="J232" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12880,7 +12791,7 @@
         <v>NA47/NA47-231.pdf</v>
       </c>
       <c r="J233" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12913,7 +12824,7 @@
         <v>NA47/NA47-232.pdf</v>
       </c>
       <c r="J234" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12946,7 +12857,7 @@
         <v>NA47/NA47-233.pdf</v>
       </c>
       <c r="J235" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12974,13 +12885,6 @@
       <c r="H236" s="5">
         <v>10</v>
       </c>
-      <c r="I236" t="str">
-        <f t="shared" si="3"/>
-        <v>NA47/NA47-234.pdf</v>
-      </c>
-      <c r="J236" t="s">
-        <v>587</v>
-      </c>
     </row>
     <row r="237" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
@@ -13012,7 +12916,7 @@
         <v>NA47/NA47-235.pdf</v>
       </c>
       <c r="J237" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13045,7 +12949,7 @@
         <v>NA47/NA47-236.pdf</v>
       </c>
       <c r="J238" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13078,7 +12982,7 @@
         <v>NA47/NA47-237.pdf</v>
       </c>
       <c r="J239" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13111,7 +13015,7 @@
         <v>NA47/NA47-238.pdf</v>
       </c>
       <c r="J240" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13144,7 +13048,7 @@
         <v>NA47/NA47-239.pdf</v>
       </c>
       <c r="J241" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13177,7 +13081,7 @@
         <v>NA47/NA47-240.pdf</v>
       </c>
       <c r="J242" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13210,7 +13114,7 @@
         <v>NA47/NA47-241.pdf</v>
       </c>
       <c r="J243" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13243,7 +13147,7 @@
         <v>NA47/NA47-242.pdf</v>
       </c>
       <c r="J244" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13276,7 +13180,7 @@
         <v>NA47/NA47-243.pdf</v>
       </c>
       <c r="J245" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13309,7 +13213,7 @@
         <v>NA47/NA47-244.pdf</v>
       </c>
       <c r="J246" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13342,7 +13246,7 @@
         <v>NA47/NA47-245.pdf</v>
       </c>
       <c r="J247" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13375,7 +13279,7 @@
         <v>NA47/NA47-246.pdf</v>
       </c>
       <c r="J248" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13408,7 +13312,7 @@
         <v>NA47/NA47-247.pdf</v>
       </c>
       <c r="J249" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13441,7 +13345,7 @@
         <v>NA47/NA47-248.pdf</v>
       </c>
       <c r="J250" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13474,7 +13378,7 @@
         <v>NA47/NA47-249.pdf</v>
       </c>
       <c r="J251" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13502,13 +13406,6 @@
       <c r="H252" s="5">
         <v>17</v>
       </c>
-      <c r="I252" t="str">
-        <f t="shared" si="3"/>
-        <v>NA47/NA47-250.pdf</v>
-      </c>
-      <c r="J252" t="s">
-        <v>603</v>
-      </c>
     </row>
     <row r="253" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
@@ -13540,7 +13437,7 @@
         <v>NA47/NA47-251.pdf</v>
       </c>
       <c r="J253" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13573,7 +13470,7 @@
         <v>NA47/NA47-252.pdf</v>
       </c>
       <c r="J254" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13606,7 +13503,7 @@
         <v>NA47/NA47-253.pdf</v>
       </c>
       <c r="J255" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13639,7 +13536,7 @@
         <v>NA47/NA47-254.pdf</v>
       </c>
       <c r="J256" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13672,7 +13569,7 @@
         <v>NA47/NA47-255.pdf</v>
       </c>
       <c r="J257" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13705,7 +13602,7 @@
         <v>NA47/NA47-256.pdf</v>
       </c>
       <c r="J258" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13738,7 +13635,7 @@
         <v>NA47/NA47-257.pdf</v>
       </c>
       <c r="J259" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13771,7 +13668,7 @@
         <v>NA47/NA47-258.pdf</v>
       </c>
       <c r="J260" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13804,7 +13701,7 @@
         <v>NA47/NA47-259.pdf</v>
       </c>
       <c r="J261" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13837,7 +13734,7 @@
         <v>NA47/NA47-260.pdf</v>
       </c>
       <c r="J262" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13870,7 +13767,7 @@
         <v>NA47/NA47-261.pdf</v>
       </c>
       <c r="J263" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13903,7 +13800,7 @@
         <v>NA47/NA47-262.pdf</v>
       </c>
       <c r="J264" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13936,7 +13833,7 @@
         <v>NA47/NA47-263.pdf</v>
       </c>
       <c r="J265" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13969,7 +13866,7 @@
         <v>NA47/NA47-264.pdf</v>
       </c>
       <c r="J266" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14002,7 +13899,7 @@
         <v>NA47/NA47-265.pdf</v>
       </c>
       <c r="J267" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14035,7 +13932,7 @@
         <v>NA47/NA47-266.pdf</v>
       </c>
       <c r="J268" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14068,7 +13965,7 @@
         <v>NA47/NA47-267.pdf</v>
       </c>
       <c r="J269" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14101,7 +13998,7 @@
         <v>NA47/NA47-268.pdf</v>
       </c>
       <c r="J270" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14134,7 +14031,7 @@
         <v>NA47/NA47-269.pdf</v>
       </c>
       <c r="J271" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14167,7 +14064,7 @@
         <v>NA47/NA47-270.pdf</v>
       </c>
       <c r="J272" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14200,7 +14097,7 @@
         <v>NA47/NA47-271.pdf</v>
       </c>
       <c r="J273" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14233,7 +14130,7 @@
         <v>NA47/NA47-272.pdf</v>
       </c>
       <c r="J274" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14266,7 +14163,7 @@
         <v>NA47/NA47-273.pdf</v>
       </c>
       <c r="J275" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14299,7 +14196,7 @@
         <v>NA47/NA47-274.pdf</v>
       </c>
       <c r="J276" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14332,7 +14229,7 @@
         <v>NA47/NA47-275.pdf</v>
       </c>
       <c r="J277" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14365,7 +14262,7 @@
         <v>NA47/NA47-276.pdf</v>
       </c>
       <c r="J278" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14398,7 +14295,7 @@
         <v>NA47/NA47-277.pdf</v>
       </c>
       <c r="J279" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14431,7 +14328,7 @@
         <v>NA47/NA47-278.pdf</v>
       </c>
       <c r="J280" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14464,7 +14361,7 @@
         <v>NA47/NA47-279.pdf</v>
       </c>
       <c r="J281" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14497,7 +14394,7 @@
         <v>NA47/NA47-280.pdf</v>
       </c>
       <c r="J282" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14530,7 +14427,7 @@
         <v>NA47/NA47-281.pdf</v>
       </c>
       <c r="J283" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14563,7 +14460,7 @@
         <v>NA47/NA47-282.pdf</v>
       </c>
       <c r="J284" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14596,7 +14493,7 @@
         <v>NA47/NA47-283.pdf</v>
       </c>
       <c r="J285" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14629,7 +14526,7 @@
         <v>NA47/NA47-284.pdf</v>
       </c>
       <c r="J286" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14662,7 +14559,7 @@
         <v>NA47/NA47-285.pdf</v>
       </c>
       <c r="J287" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14695,7 +14592,7 @@
         <v>NA47/NA47-286.pdf</v>
       </c>
       <c r="J288" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14728,7 +14625,7 @@
         <v>NA47/NA47-287.pdf</v>
       </c>
       <c r="J289" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14761,7 +14658,7 @@
         <v>NA47/NA47-288.pdf</v>
       </c>
       <c r="J290" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14794,7 +14691,7 @@
         <v>NA47/NA47-289.pdf</v>
       </c>
       <c r="J291" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14827,7 +14724,7 @@
         <v>NA47/NA47-290.pdf</v>
       </c>
       <c r="J292" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14860,7 +14757,7 @@
         <v>NA47/NA47-291.pdf</v>
       </c>
       <c r="J293" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14893,7 +14790,7 @@
         <v>NA47/NA47-292.pdf</v>
       </c>
       <c r="J294" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="295" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14926,7 +14823,7 @@
         <v>NA47/NA47-293.pdf</v>
       </c>
       <c r="J295" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14959,7 +14856,7 @@
         <v>NA47/NA47-294.pdf</v>
       </c>
       <c r="J296" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14992,7 +14889,7 @@
         <v>NA47/NA47-295.pdf</v>
       </c>
       <c r="J297" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15025,7 +14922,7 @@
         <v>NA47/NA47-296.pdf</v>
       </c>
       <c r="J298" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15058,7 +14955,7 @@
         <v>NA47/NA47-297.pdf</v>
       </c>
       <c r="J299" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15091,7 +14988,7 @@
         <v>NA47/NA47-298.pdf</v>
       </c>
       <c r="J300" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15124,7 +15021,7 @@
         <v>NA47/NA47-299.pdf</v>
       </c>
       <c r="J301" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15157,7 +15054,7 @@
         <v>NA47/NA47-300.pdf</v>
       </c>
       <c r="J302" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15190,7 +15087,7 @@
         <v>NA47/NA47-301.pdf</v>
       </c>
       <c r="J303" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15223,7 +15120,7 @@
         <v>NA47/NA47-302.pdf</v>
       </c>
       <c r="J304" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15256,7 +15153,7 @@
         <v>NA47/NA47-303.pdf</v>
       </c>
       <c r="J305" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15289,7 +15186,7 @@
         <v>NA47/NA47-304.pdf</v>
       </c>
       <c r="J306" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15322,7 +15219,7 @@
         <v>NA47/NA47-305.pdf</v>
       </c>
       <c r="J307" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15355,7 +15252,7 @@
         <v>NA47/NA47-306.pdf</v>
       </c>
       <c r="J308" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15388,7 +15285,7 @@
         <v>NA47/NA47-307.pdf</v>
       </c>
       <c r="J309" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15421,7 +15318,7 @@
         <v>NA47/NA47-308.pdf</v>
       </c>
       <c r="J310" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15454,7 +15351,7 @@
         <v>NA47/NA47-309.pdf</v>
       </c>
       <c r="J311" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15487,7 +15384,7 @@
         <v>NA47/NA47-310.pdf</v>
       </c>
       <c r="J312" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15520,7 +15417,7 @@
         <v>NA47/NA47-311.pdf</v>
       </c>
       <c r="J313" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15553,7 +15450,7 @@
         <v>NA47/NA47-312.pdf</v>
       </c>
       <c r="J314" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15586,7 +15483,7 @@
         <v>NA47/NA47-313.pdf</v>
       </c>
       <c r="J315" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15619,7 +15516,7 @@
         <v>NA47/NA47-314.pdf</v>
       </c>
       <c r="J316" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15652,7 +15549,7 @@
         <v>NA47/NA47-315.pdf</v>
       </c>
       <c r="J317" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15685,7 +15582,7 @@
         <v>NA47/NA47-316.pdf</v>
       </c>
       <c r="J318" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15718,7 +15615,7 @@
         <v>NA47/NA47-317.pdf</v>
       </c>
       <c r="J319" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15751,7 +15648,7 @@
         <v>NA47/NA47-318.pdf</v>
       </c>
       <c r="J320" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15784,7 +15681,7 @@
         <v>NA47/NA47-319.pdf</v>
       </c>
       <c r="J321" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15817,7 +15714,7 @@
         <v>NA47/NA47-320.pdf</v>
       </c>
       <c r="J322" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15850,7 +15747,7 @@
         <v>NA47/NA47-321.pdf</v>
       </c>
       <c r="J323" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15883,7 +15780,7 @@
         <v>NA47/NA47-322.pdf</v>
       </c>
       <c r="J324" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15916,7 +15813,7 @@
         <v>NA47/NA47-323.pdf</v>
       </c>
       <c r="J325" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15949,7 +15846,7 @@
         <v>NA47/NA47-324.pdf</v>
       </c>
       <c r="J326" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15982,7 +15879,7 @@
         <v>NA47/NA47-325.pdf</v>
       </c>
       <c r="J327" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16015,7 +15912,7 @@
         <v>NA47/NA47-326.pdf</v>
       </c>
       <c r="J328" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16048,7 +15945,7 @@
         <v>NA47/NA47-327.pdf</v>
       </c>
       <c r="J329" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16081,7 +15978,7 @@
         <v>NA47/NA47-328.pdf</v>
       </c>
       <c r="J330" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16114,7 +16011,7 @@
         <v>NA47/NA47-329.pdf</v>
       </c>
       <c r="J331" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="332" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16147,7 +16044,7 @@
         <v>NA47/NA47-330.pdf</v>
       </c>
       <c r="J332" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16180,7 +16077,7 @@
         <v>NA47/NA47-331.pdf</v>
       </c>
       <c r="J333" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16213,7 +16110,7 @@
         <v>NA47/NA47-332.pdf</v>
       </c>
       <c r="J334" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16246,7 +16143,7 @@
         <v>NA47/NA47-333.pdf</v>
       </c>
       <c r="J335" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16279,7 +16176,7 @@
         <v>NA47/NA47-334.pdf</v>
       </c>
       <c r="J336" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16312,7 +16209,7 @@
         <v>NA47/NA47-335.pdf</v>
       </c>
       <c r="J337" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16345,7 +16242,7 @@
         <v>NA47/NA47-336.pdf</v>
       </c>
       <c r="J338" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16378,7 +16275,7 @@
         <v>NA47/NA47-337.pdf</v>
       </c>
       <c r="J339" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16411,7 +16308,7 @@
         <v>NA47/NA47-338.pdf</v>
       </c>
       <c r="J340" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16444,7 +16341,7 @@
         <v>NA47/NA47-339.pdf</v>
       </c>
       <c r="J341" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16477,7 +16374,7 @@
         <v>NA47/NA47-340.pdf</v>
       </c>
       <c r="J342" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="343" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16510,7 +16407,7 @@
         <v>NA47/NA47-341.pdf</v>
       </c>
       <c r="J343" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16543,7 +16440,7 @@
         <v>NA47/NA47-342.pdf</v>
       </c>
       <c r="J344" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16576,7 +16473,7 @@
         <v>NA47/NA47-343.pdf</v>
       </c>
       <c r="J345" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16609,7 +16506,7 @@
         <v>NA47/NA47-344.pdf</v>
       </c>
       <c r="J346" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16642,7 +16539,7 @@
         <v>NA47/NA47-345.pdf</v>
       </c>
       <c r="J347" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16675,7 +16572,7 @@
         <v>NA47/NA47-346.pdf</v>
       </c>
       <c r="J348" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="349" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16708,7 +16605,7 @@
         <v>NA47/NA47-347.pdf</v>
       </c>
       <c r="J349" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16741,7 +16638,7 @@
         <v>NA47/NA47-348.pdf</v>
       </c>
       <c r="J350" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16774,7 +16671,7 @@
         <v>NA47/NA47-349.pdf</v>
       </c>
       <c r="J351" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16807,7 +16704,7 @@
         <v>NA47/NA47-350.pdf</v>
       </c>
       <c r="J352" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="353" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16840,7 +16737,7 @@
         <v>NA47/NA47-351.pdf</v>
       </c>
       <c r="J353" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="354" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16873,7 +16770,7 @@
         <v>NA47/NA47-352.pdf</v>
       </c>
       <c r="J354" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="355" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16906,7 +16803,7 @@
         <v>NA47/NA47-353.pdf</v>
       </c>
       <c r="J355" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="356" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16939,7 +16836,7 @@
         <v>NA47/NA47-354.pdf</v>
       </c>
       <c r="J356" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="357" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16972,7 +16869,7 @@
         <v>NA47/NA47-355.pdf</v>
       </c>
       <c r="J357" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="358" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17005,7 +16902,7 @@
         <v>NA47/NA47-356.pdf</v>
       </c>
       <c r="J358" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="359" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17038,7 +16935,7 @@
         <v>NA47/NA47-357.pdf</v>
       </c>
       <c r="J359" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17071,7 +16968,7 @@
         <v>NA47/NA47-358.pdf</v>
       </c>
       <c r="J360" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="361" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17104,7 +17001,7 @@
         <v>NA47/NA47-359.pdf</v>
       </c>
       <c r="J361" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="362" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17137,7 +17034,7 @@
         <v>NA47/NA47-360.pdf</v>
       </c>
       <c r="J362" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="363" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17170,7 +17067,7 @@
         <v>NA47/NA47-361.pdf</v>
       </c>
       <c r="J363" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="364" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17203,7 +17100,7 @@
         <v>NA47/NA47-362.pdf</v>
       </c>
       <c r="J364" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="365" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17236,7 +17133,7 @@
         <v>NA47/NA47-363.pdf</v>
       </c>
       <c r="J365" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="366" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17269,7 +17166,7 @@
         <v>NA47/NA47-364.pdf</v>
       </c>
       <c r="J366" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="367" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17302,7 +17199,7 @@
         <v>NA47/NA47-365.pdf</v>
       </c>
       <c r="J367" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="368" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17335,7 +17232,7 @@
         <v>NA47/NA47-366.pdf</v>
       </c>
       <c r="J368" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="369" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17368,7 +17265,7 @@
         <v>NA47/NA47-367.pdf</v>
       </c>
       <c r="J369" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="370" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17401,7 +17298,7 @@
         <v>NA47/NA47-368.pdf</v>
       </c>
       <c r="J370" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="371" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17434,7 +17331,7 @@
         <v>NA47/NA47-369.pdf</v>
       </c>
       <c r="J371" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="372" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17467,7 +17364,7 @@
         <v>NA47/NA47-370.pdf</v>
       </c>
       <c r="J372" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17500,7 +17397,7 @@
         <v>NA47/NA47-371.pdf</v>
       </c>
       <c r="J373" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="374" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17533,7 +17430,7 @@
         <v>NA47/NA47-372.pdf</v>
       </c>
       <c r="J374" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17566,7 +17463,7 @@
         <v>NA47/NA47-373.pdf</v>
       </c>
       <c r="J375" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17599,7 +17496,7 @@
         <v>NA47/NA47-374.pdf</v>
       </c>
       <c r="J376" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="377" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17632,7 +17529,7 @@
         <v>NA47/NA47-375.pdf</v>
       </c>
       <c r="J377" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="378" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17665,7 +17562,7 @@
         <v>NA47/NA47-376.pdf</v>
       </c>
       <c r="J378" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="379" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17698,7 +17595,7 @@
         <v>NA47/NA47-377.pdf</v>
       </c>
       <c r="J379" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="380" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17731,7 +17628,7 @@
         <v>NA47/NA47-378.pdf</v>
       </c>
       <c r="J380" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="381" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17764,7 +17661,7 @@
         <v>NA47/NA47-379.pdf</v>
       </c>
       <c r="J381" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17797,7 +17694,7 @@
         <v>NA47/NA47-380.pdf</v>
       </c>
       <c r="J382" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17830,7 +17727,7 @@
         <v>NA47/NA47-381.pdf</v>
       </c>
       <c r="J383" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="384" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17863,7 +17760,7 @@
         <v>NA47/NA47-382.pdf</v>
       </c>
       <c r="J384" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="385" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17896,7 +17793,7 @@
         <v>NA47/NA47-383.pdf</v>
       </c>
       <c r="J385" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="386" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17929,7 +17826,7 @@
         <v>NA47/NA47-384.pdf</v>
       </c>
       <c r="J386" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="387" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17962,7 +17859,7 @@
         <v>NA47/NA47-385.pdf</v>
       </c>
       <c r="J387" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="388" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17995,7 +17892,7 @@
         <v>NA47/NA47-386.pdf</v>
       </c>
       <c r="J388" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="389" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18028,7 +17925,7 @@
         <v>NA47/NA47-387.pdf</v>
       </c>
       <c r="J389" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/assets/xls/NAT/47.xlsx
+++ b/assets/xls/NAT/47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\form45\assets\xls\NAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856A4E5B-1BE1-4C50-B8B1-E3CA7641EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5705334C-E1C9-47F0-B5CE-C7038ACED388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5154,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C485" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K243" sqref="K243"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/assets/xls/NAT/47.xlsx
+++ b/assets/xls/NAT/47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\form45\assets\xls\NAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5705334C-E1C9-47F0-B5CE-C7038ACED388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70013D0F-9D03-4C8D-9D94-7EF64B7932B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3453,9 +3453,6 @@
     </r>
   </si>
   <si>
-    <t>NA-47</t>
-  </si>
-  <si>
     <t>PTI</t>
   </si>
   <si>
@@ -4618,6 +4615,9 @@
   </si>
   <si>
     <t>NA47/NA47-387</t>
+  </si>
+  <si>
+    <t>Polling Stations</t>
   </si>
 </sst>
 </file>
@@ -4745,7 +4745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4843,9 +4843,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5155,7 +5152,7 @@
   <dimension ref="A1:J389"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5168,16 +5165,16 @@
     <col min="6" max="6" width="6.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="102.83203125" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1" s="32">
         <f>SUM(C2:C389)</f>
@@ -5206,31 +5203,31 @@
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>348</v>
-      </c>
       <c r="I2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5259,11 +5256,11 @@
         <v>12</v>
       </c>
       <c r="I3" t="str">
-        <f>J3 &amp;".pdf"</f>
-        <v>NA47/NA47-1.pdf</v>
+        <f>"https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/"&amp;J3 &amp;".pdf"</f>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-1.pdf</v>
       </c>
       <c r="J3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5292,11 +5289,11 @@
         <v>1</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I67" si="0">J4 &amp;".pdf"</f>
-        <v>NA47/NA47-2.pdf</v>
+        <f t="shared" ref="I4:I67" si="0">"https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/"&amp;J4 &amp;".pdf"</f>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-2.pdf</v>
       </c>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5326,10 +5323,10 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-3.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-3.pdf</v>
       </c>
       <c r="J5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5359,10 +5356,10 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-4.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-4.pdf</v>
       </c>
       <c r="J6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5392,10 +5389,10 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-5.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-5.pdf</v>
       </c>
       <c r="J7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5425,10 +5422,10 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-6.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-6.pdf</v>
       </c>
       <c r="J8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5436,7 +5433,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C9" s="3">
         <v>254</v>
@@ -5458,10 +5455,10 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-7.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-7.pdf</v>
       </c>
       <c r="J9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5491,10 +5488,10 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-8.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-8.pdf</v>
       </c>
       <c r="J10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5524,10 +5521,10 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-9.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-9.pdf</v>
       </c>
       <c r="J11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5557,10 +5554,10 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-10.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-10.pdf</v>
       </c>
       <c r="J12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5590,10 +5587,10 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-11.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-11.pdf</v>
       </c>
       <c r="J13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5623,10 +5620,10 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-12.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-12.pdf</v>
       </c>
       <c r="J14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5656,10 +5653,10 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-13.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-13.pdf</v>
       </c>
       <c r="J15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5689,10 +5686,10 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-14.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-14.pdf</v>
       </c>
       <c r="J16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5722,10 +5719,10 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-15.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-15.pdf</v>
       </c>
       <c r="J17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5755,10 +5752,10 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-16.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-16.pdf</v>
       </c>
       <c r="J18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5788,10 +5785,10 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-17.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-17.pdf</v>
       </c>
       <c r="J19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5821,10 +5818,10 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-18.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-18.pdf</v>
       </c>
       <c r="J20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5854,10 +5851,10 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-19.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-19.pdf</v>
       </c>
       <c r="J21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5887,10 +5884,10 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-20.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-20.pdf</v>
       </c>
       <c r="J22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5920,10 +5917,10 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-21.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-21.pdf</v>
       </c>
       <c r="J23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5953,10 +5950,10 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-22.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-22.pdf</v>
       </c>
       <c r="J24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5986,10 +5983,10 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-23.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-23.pdf</v>
       </c>
       <c r="J25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6019,10 +6016,10 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-24.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-24.pdf</v>
       </c>
       <c r="J26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6052,10 +6049,10 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-25.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-25.pdf</v>
       </c>
       <c r="J27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6083,9 +6080,12 @@
       <c r="H28" s="3">
         <v>61</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-26.pdf</v>
+      </c>
       <c r="J28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6115,10 +6115,10 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-27.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-27.pdf</v>
       </c>
       <c r="J29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6148,10 +6148,10 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-28.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-28.pdf</v>
       </c>
       <c r="J30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6181,10 +6181,10 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-29.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-29.pdf</v>
       </c>
       <c r="J31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6214,10 +6214,10 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-30.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-30.pdf</v>
       </c>
       <c r="J32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6245,9 +6245,12 @@
       <c r="H33" s="3">
         <v>12</v>
       </c>
-      <c r="I33" s="33"/>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-31.pdf</v>
+      </c>
       <c r="J33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6277,10 +6280,10 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-32.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-32.pdf</v>
       </c>
       <c r="J34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6310,10 +6313,10 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-33.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-33.pdf</v>
       </c>
       <c r="J35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6343,10 +6346,10 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-34.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-34.pdf</v>
       </c>
       <c r="J36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6454,10 +6457,10 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-38.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-38.pdf</v>
       </c>
       <c r="J40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6487,10 +6490,10 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-39.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-39.pdf</v>
       </c>
       <c r="J41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6520,10 +6523,10 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-40.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-40.pdf</v>
       </c>
       <c r="J42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6553,10 +6556,10 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-41.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-41.pdf</v>
       </c>
       <c r="J43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6586,10 +6589,10 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-42.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-42.pdf</v>
       </c>
       <c r="J44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6619,10 +6622,10 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-43.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-43.pdf</v>
       </c>
       <c r="J45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6652,10 +6655,10 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-44.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-44.pdf</v>
       </c>
       <c r="J46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6685,10 +6688,10 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-45.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-45.pdf</v>
       </c>
       <c r="J47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6718,10 +6721,10 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-46.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-46.pdf</v>
       </c>
       <c r="J48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6751,10 +6754,10 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-47.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-47.pdf</v>
       </c>
       <c r="J49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6784,10 +6787,10 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-48.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-48.pdf</v>
       </c>
       <c r="J50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6817,10 +6820,10 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-49.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-49.pdf</v>
       </c>
       <c r="J51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6850,10 +6853,10 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-50.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-50.pdf</v>
       </c>
       <c r="J52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6883,10 +6886,10 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-51.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-51.pdf</v>
       </c>
       <c r="J53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6916,10 +6919,10 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-52.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-52.pdf</v>
       </c>
       <c r="J54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6949,10 +6952,10 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-53.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-53.pdf</v>
       </c>
       <c r="J55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6982,10 +6985,10 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-54.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-54.pdf</v>
       </c>
       <c r="J56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7015,10 +7018,10 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-55.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-55.pdf</v>
       </c>
       <c r="J57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7048,10 +7051,10 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-56.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-56.pdf</v>
       </c>
       <c r="J58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7081,10 +7084,10 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-57.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-57.pdf</v>
       </c>
       <c r="J59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7114,10 +7117,10 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-58.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-58.pdf</v>
       </c>
       <c r="J60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7173,10 +7176,10 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-60.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-60.pdf</v>
       </c>
       <c r="J62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7206,10 +7209,10 @@
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-61.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-61.pdf</v>
       </c>
       <c r="J63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7239,10 +7242,10 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-62.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-62.pdf</v>
       </c>
       <c r="J64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7272,10 +7275,10 @@
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-63.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-63.pdf</v>
       </c>
       <c r="J65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7305,10 +7308,10 @@
       </c>
       <c r="I66" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-64.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-64.pdf</v>
       </c>
       <c r="J66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7338,10 +7341,10 @@
       </c>
       <c r="I67" t="str">
         <f t="shared" si="0"/>
-        <v>NA47/NA47-65.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-65.pdf</v>
       </c>
       <c r="J67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7370,11 +7373,11 @@
         <v>4</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I131" si="1">J68 &amp;".pdf"</f>
-        <v>NA47/NA47-66.pdf</v>
+        <f t="shared" ref="I68:I131" si="1">"https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/"&amp;J68 &amp;".pdf"</f>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-66.pdf</v>
       </c>
       <c r="J68" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7404,10 +7407,10 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-67.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-67.pdf</v>
       </c>
       <c r="J69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7437,10 +7440,10 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-68.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-68.pdf</v>
       </c>
       <c r="J70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7496,10 +7499,10 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-70.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-70.pdf</v>
       </c>
       <c r="J72" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7529,10 +7532,10 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-71.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-71.pdf</v>
       </c>
       <c r="J73" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7562,10 +7565,10 @@
       </c>
       <c r="I74" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-72.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-72.pdf</v>
       </c>
       <c r="J74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7595,10 +7598,10 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-73.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-73.pdf</v>
       </c>
       <c r="J75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7628,10 +7631,10 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-74.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-74.pdf</v>
       </c>
       <c r="J76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7661,10 +7664,10 @@
       </c>
       <c r="I77" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-75.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-75.pdf</v>
       </c>
       <c r="J77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7694,10 +7697,10 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-76.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-76.pdf</v>
       </c>
       <c r="J78" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7727,10 +7730,10 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-77.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-77.pdf</v>
       </c>
       <c r="J79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7760,10 +7763,10 @@
       </c>
       <c r="I80" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-78.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-78.pdf</v>
       </c>
       <c r="J80" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7793,10 +7796,10 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-79.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-79.pdf</v>
       </c>
       <c r="J81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7826,10 +7829,10 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-80.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-80.pdf</v>
       </c>
       <c r="J82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7859,10 +7862,10 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-81.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-81.pdf</v>
       </c>
       <c r="J83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7892,10 +7895,10 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-82.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-82.pdf</v>
       </c>
       <c r="J84" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7925,10 +7928,10 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-83.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-83.pdf</v>
       </c>
       <c r="J85" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7958,10 +7961,10 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-84.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-84.pdf</v>
       </c>
       <c r="J86" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7991,10 +7994,10 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-85.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-85.pdf</v>
       </c>
       <c r="J87" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8024,10 +8027,10 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-86.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-86.pdf</v>
       </c>
       <c r="J88" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8057,10 +8060,10 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-87.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-87.pdf</v>
       </c>
       <c r="J89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8090,10 +8093,10 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-88.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-88.pdf</v>
       </c>
       <c r="J90" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8123,10 +8126,10 @@
       </c>
       <c r="I91" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-89.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-89.pdf</v>
       </c>
       <c r="J91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8156,10 +8159,10 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-90.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-90.pdf</v>
       </c>
       <c r="J92" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8189,10 +8192,10 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-91.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-91.pdf</v>
       </c>
       <c r="J93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8222,10 +8225,10 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-92.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-92.pdf</v>
       </c>
       <c r="J94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8255,10 +8258,10 @@
       </c>
       <c r="I95" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-93.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-93.pdf</v>
       </c>
       <c r="J95" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8288,10 +8291,10 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-94.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-94.pdf</v>
       </c>
       <c r="J96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8321,10 +8324,10 @@
       </c>
       <c r="I97" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-95.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-95.pdf</v>
       </c>
       <c r="J97" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8354,10 +8357,10 @@
       </c>
       <c r="I98" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-96.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-96.pdf</v>
       </c>
       <c r="J98" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8387,10 +8390,10 @@
       </c>
       <c r="I99" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-97.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-97.pdf</v>
       </c>
       <c r="J99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8420,10 +8423,10 @@
       </c>
       <c r="I100" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-98.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-98.pdf</v>
       </c>
       <c r="J100" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8453,10 +8456,10 @@
       </c>
       <c r="I101" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-99.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-99.pdf</v>
       </c>
       <c r="J101" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8486,10 +8489,10 @@
       </c>
       <c r="I102" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-100.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-100.pdf</v>
       </c>
       <c r="J102" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8519,10 +8522,10 @@
       </c>
       <c r="I103" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-101.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-101.pdf</v>
       </c>
       <c r="J103" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8552,10 +8555,10 @@
       </c>
       <c r="I104" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-102.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-102.pdf</v>
       </c>
       <c r="J104" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8585,10 +8588,10 @@
       </c>
       <c r="I105" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-103.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-103.pdf</v>
       </c>
       <c r="J105" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8618,10 +8621,10 @@
       </c>
       <c r="I106" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-104.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-104.pdf</v>
       </c>
       <c r="J106" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8651,10 +8654,10 @@
       </c>
       <c r="I107" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-105.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-105.pdf</v>
       </c>
       <c r="J107" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8684,10 +8687,10 @@
       </c>
       <c r="I108" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-106.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-106.pdf</v>
       </c>
       <c r="J108" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,10 +8720,10 @@
       </c>
       <c r="I109" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-107.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-107.pdf</v>
       </c>
       <c r="J109" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8750,10 +8753,10 @@
       </c>
       <c r="I110" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-108.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-108.pdf</v>
       </c>
       <c r="J110" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8783,10 +8786,10 @@
       </c>
       <c r="I111" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-109.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-109.pdf</v>
       </c>
       <c r="J111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8816,10 +8819,10 @@
       </c>
       <c r="I112" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-110.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-110.pdf</v>
       </c>
       <c r="J112" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8849,10 +8852,10 @@
       </c>
       <c r="I113" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-111.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-111.pdf</v>
       </c>
       <c r="J113" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8882,10 +8885,10 @@
       </c>
       <c r="I114" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-112.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-112.pdf</v>
       </c>
       <c r="J114" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8915,10 +8918,10 @@
       </c>
       <c r="I115" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-113.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-113.pdf</v>
       </c>
       <c r="J115" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8948,10 +8951,10 @@
       </c>
       <c r="I116" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-114.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-114.pdf</v>
       </c>
       <c r="J116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8981,10 +8984,10 @@
       </c>
       <c r="I117" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-115.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-115.pdf</v>
       </c>
       <c r="J117" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9014,10 +9017,10 @@
       </c>
       <c r="I118" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-116.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-116.pdf</v>
       </c>
       <c r="J118" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9047,10 +9050,10 @@
       </c>
       <c r="I119" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-117.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-117.pdf</v>
       </c>
       <c r="J119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9080,10 +9083,10 @@
       </c>
       <c r="I120" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-118.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-118.pdf</v>
       </c>
       <c r="J120" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9113,10 +9116,10 @@
       </c>
       <c r="I121" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-119.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-119.pdf</v>
       </c>
       <c r="J121" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9146,10 +9149,10 @@
       </c>
       <c r="I122" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-120.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-120.pdf</v>
       </c>
       <c r="J122" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9179,10 +9182,10 @@
       </c>
       <c r="I123" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-121.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-121.pdf</v>
       </c>
       <c r="J123" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9212,10 +9215,10 @@
       </c>
       <c r="I124" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-122.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-122.pdf</v>
       </c>
       <c r="J124" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9245,10 +9248,10 @@
       </c>
       <c r="I125" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-123.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-123.pdf</v>
       </c>
       <c r="J125" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9278,10 +9281,10 @@
       </c>
       <c r="I126" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-124.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-124.pdf</v>
       </c>
       <c r="J126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9311,10 +9314,10 @@
       </c>
       <c r="I127" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-125.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-125.pdf</v>
       </c>
       <c r="J127" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9344,10 +9347,10 @@
       </c>
       <c r="I128" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-126.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-126.pdf</v>
       </c>
       <c r="J128" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9377,10 +9380,10 @@
       </c>
       <c r="I129" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-127.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-127.pdf</v>
       </c>
       <c r="J129" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9410,10 +9413,10 @@
       </c>
       <c r="I130" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-128.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-128.pdf</v>
       </c>
       <c r="J130" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9443,10 +9446,10 @@
       </c>
       <c r="I131" t="str">
         <f t="shared" si="1"/>
-        <v>NA47/NA47-129.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-129.pdf</v>
       </c>
       <c r="J131" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9475,11 +9478,11 @@
         <v>99</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" ref="I132:I195" si="2">J132 &amp;".pdf"</f>
-        <v>NA47/NA47-130.pdf</v>
+        <f t="shared" ref="I132:I195" si="2">"https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/"&amp;J132 &amp;".pdf"</f>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-130.pdf</v>
       </c>
       <c r="J132" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9509,10 +9512,10 @@
       </c>
       <c r="I133" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-131.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-131.pdf</v>
       </c>
       <c r="J133" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9542,10 +9545,10 @@
       </c>
       <c r="I134" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-132.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-132.pdf</v>
       </c>
       <c r="J134" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9575,10 +9578,10 @@
       </c>
       <c r="I135" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-133.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-133.pdf</v>
       </c>
       <c r="J135" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9608,10 +9611,10 @@
       </c>
       <c r="I136" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-134.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-134.pdf</v>
       </c>
       <c r="J136" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9641,10 +9644,10 @@
       </c>
       <c r="I137" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-135.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-135.pdf</v>
       </c>
       <c r="J137" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9674,10 +9677,10 @@
       </c>
       <c r="I138" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-136.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-136.pdf</v>
       </c>
       <c r="J138" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9707,10 +9710,10 @@
       </c>
       <c r="I139" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-137.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-137.pdf</v>
       </c>
       <c r="J139" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9740,10 +9743,10 @@
       </c>
       <c r="I140" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-138.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-138.pdf</v>
       </c>
       <c r="J140" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9773,10 +9776,10 @@
       </c>
       <c r="I141" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-139.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-139.pdf</v>
       </c>
       <c r="J141" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9806,10 +9809,10 @@
       </c>
       <c r="I142" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-140.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-140.pdf</v>
       </c>
       <c r="J142" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9839,10 +9842,10 @@
       </c>
       <c r="I143" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-141.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-141.pdf</v>
       </c>
       <c r="J143" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9872,10 +9875,10 @@
       </c>
       <c r="I144" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-142.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-142.pdf</v>
       </c>
       <c r="J144" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9905,10 +9908,10 @@
       </c>
       <c r="I145" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-143.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-143.pdf</v>
       </c>
       <c r="J145" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9938,10 +9941,10 @@
       </c>
       <c r="I146" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-144.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-144.pdf</v>
       </c>
       <c r="J146" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9997,10 +10000,10 @@
       </c>
       <c r="I148" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-146.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-146.pdf</v>
       </c>
       <c r="J148" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10030,10 +10033,10 @@
       </c>
       <c r="I149" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-147.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-147.pdf</v>
       </c>
       <c r="J149" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10063,10 +10066,10 @@
       </c>
       <c r="I150" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-148.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-148.pdf</v>
       </c>
       <c r="J150" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10096,10 +10099,10 @@
       </c>
       <c r="I151" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-149.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-149.pdf</v>
       </c>
       <c r="J151" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10129,10 +10132,10 @@
       </c>
       <c r="I152" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-150.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-150.pdf</v>
       </c>
       <c r="J152" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10162,10 +10165,10 @@
       </c>
       <c r="I153" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-151.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-151.pdf</v>
       </c>
       <c r="J153" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10195,10 +10198,10 @@
       </c>
       <c r="I154" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-152.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-152.pdf</v>
       </c>
       <c r="J154" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10228,10 +10231,10 @@
       </c>
       <c r="I155" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-153.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-153.pdf</v>
       </c>
       <c r="J155" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10261,10 +10264,10 @@
       </c>
       <c r="I156" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-154.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-154.pdf</v>
       </c>
       <c r="J156" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10294,10 +10297,10 @@
       </c>
       <c r="I157" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-155.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-155.pdf</v>
       </c>
       <c r="J157" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10327,10 +10330,10 @@
       </c>
       <c r="I158" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-156.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-156.pdf</v>
       </c>
       <c r="J158" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10360,10 +10363,10 @@
       </c>
       <c r="I159" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-157.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-157.pdf</v>
       </c>
       <c r="J159" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10393,10 +10396,10 @@
       </c>
       <c r="I160" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-158.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-158.pdf</v>
       </c>
       <c r="J160" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10426,10 +10429,10 @@
       </c>
       <c r="I161" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-159.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-159.pdf</v>
       </c>
       <c r="J161" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10459,10 +10462,10 @@
       </c>
       <c r="I162" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-160.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-160.pdf</v>
       </c>
       <c r="J162" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10492,10 +10495,10 @@
       </c>
       <c r="I163" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-161.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-161.pdf</v>
       </c>
       <c r="J163" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10525,10 +10528,10 @@
       </c>
       <c r="I164" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-162.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-162.pdf</v>
       </c>
       <c r="J164" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10558,10 +10561,10 @@
       </c>
       <c r="I165" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-163.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-163.pdf</v>
       </c>
       <c r="J165" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10591,10 +10594,10 @@
       </c>
       <c r="I166" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-164.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-164.pdf</v>
       </c>
       <c r="J166" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10624,10 +10627,10 @@
       </c>
       <c r="I167" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-165.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-165.pdf</v>
       </c>
       <c r="J167" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10657,10 +10660,10 @@
       </c>
       <c r="I168" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-166.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-166.pdf</v>
       </c>
       <c r="J168" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10690,10 +10693,10 @@
       </c>
       <c r="I169" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-167.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-167.pdf</v>
       </c>
       <c r="J169" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10723,10 +10726,10 @@
       </c>
       <c r="I170" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-168.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-168.pdf</v>
       </c>
       <c r="J170" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10756,10 +10759,10 @@
       </c>
       <c r="I171" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-169.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-169.pdf</v>
       </c>
       <c r="J171" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10789,10 +10792,10 @@
       </c>
       <c r="I172" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-170.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-170.pdf</v>
       </c>
       <c r="J172" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10822,10 +10825,10 @@
       </c>
       <c r="I173" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-171.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-171.pdf</v>
       </c>
       <c r="J173" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10855,10 +10858,10 @@
       </c>
       <c r="I174" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-172.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-172.pdf</v>
       </c>
       <c r="J174" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10888,10 +10891,10 @@
       </c>
       <c r="I175" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-173.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-173.pdf</v>
       </c>
       <c r="J175" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10921,10 +10924,10 @@
       </c>
       <c r="I176" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-174.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-174.pdf</v>
       </c>
       <c r="J176" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10954,10 +10957,10 @@
       </c>
       <c r="I177" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-175.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-175.pdf</v>
       </c>
       <c r="J177" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10987,10 +10990,10 @@
       </c>
       <c r="I178" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-176.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-176.pdf</v>
       </c>
       <c r="J178" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11020,10 +11023,10 @@
       </c>
       <c r="I179" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-177.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-177.pdf</v>
       </c>
       <c r="J179" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11053,10 +11056,10 @@
       </c>
       <c r="I180" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-178.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-178.pdf</v>
       </c>
       <c r="J180" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11086,10 +11089,10 @@
       </c>
       <c r="I181" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-179.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-179.pdf</v>
       </c>
       <c r="J181" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11119,10 +11122,10 @@
       </c>
       <c r="I182" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-180.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-180.pdf</v>
       </c>
       <c r="J182" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11152,10 +11155,10 @@
       </c>
       <c r="I183" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-181.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-181.pdf</v>
       </c>
       <c r="J183" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11185,10 +11188,10 @@
       </c>
       <c r="I184" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-182.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-182.pdf</v>
       </c>
       <c r="J184" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11218,10 +11221,10 @@
       </c>
       <c r="I185" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-183.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-183.pdf</v>
       </c>
       <c r="J185" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11251,10 +11254,10 @@
       </c>
       <c r="I186" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-184.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-184.pdf</v>
       </c>
       <c r="J186" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11284,10 +11287,10 @@
       </c>
       <c r="I187" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-185.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-185.pdf</v>
       </c>
       <c r="J187" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11317,10 +11320,10 @@
       </c>
       <c r="I188" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-186.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-186.pdf</v>
       </c>
       <c r="J188" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11350,10 +11353,10 @@
       </c>
       <c r="I189" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-187.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-187.pdf</v>
       </c>
       <c r="J189" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11383,10 +11386,10 @@
       </c>
       <c r="I190" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-188.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-188.pdf</v>
       </c>
       <c r="J190" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11442,10 +11445,10 @@
       </c>
       <c r="I192" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-190.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-190.pdf</v>
       </c>
       <c r="J192" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11475,10 +11478,10 @@
       </c>
       <c r="I193" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-191.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-191.pdf</v>
       </c>
       <c r="J193" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11508,10 +11511,10 @@
       </c>
       <c r="I194" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-192.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-192.pdf</v>
       </c>
       <c r="J194" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11541,10 +11544,10 @@
       </c>
       <c r="I195" t="str">
         <f t="shared" si="2"/>
-        <v>NA47/NA47-193.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-193.pdf</v>
       </c>
       <c r="J195" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11573,11 +11576,11 @@
         <v>2</v>
       </c>
       <c r="I196" t="str">
-        <f t="shared" ref="I196:I259" si="3">J196 &amp;".pdf"</f>
-        <v>NA47/NA47-194.pdf</v>
+        <f t="shared" ref="I196:I259" si="3">"https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/"&amp;J196 &amp;".pdf"</f>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-194.pdf</v>
       </c>
       <c r="J196" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11607,10 +11610,10 @@
       </c>
       <c r="I197" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-195.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-195.pdf</v>
       </c>
       <c r="J197" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11640,10 +11643,10 @@
       </c>
       <c r="I198" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-196.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-196.pdf</v>
       </c>
       <c r="J198" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11673,10 +11676,10 @@
       </c>
       <c r="I199" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-197.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-197.pdf</v>
       </c>
       <c r="J199" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11706,10 +11709,10 @@
       </c>
       <c r="I200" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-198.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-198.pdf</v>
       </c>
       <c r="J200" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11739,10 +11742,10 @@
       </c>
       <c r="I201" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-199.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-199.pdf</v>
       </c>
       <c r="J201" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11772,10 +11775,10 @@
       </c>
       <c r="I202" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-200.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-200.pdf</v>
       </c>
       <c r="J202" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11805,10 +11808,10 @@
       </c>
       <c r="I203" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-201.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-201.pdf</v>
       </c>
       <c r="J203" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11838,10 +11841,10 @@
       </c>
       <c r="I204" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-202.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-202.pdf</v>
       </c>
       <c r="J204" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11871,10 +11874,10 @@
       </c>
       <c r="I205" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-203.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-203.pdf</v>
       </c>
       <c r="J205" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11904,10 +11907,10 @@
       </c>
       <c r="I206" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-204.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-204.pdf</v>
       </c>
       <c r="J206" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11937,10 +11940,10 @@
       </c>
       <c r="I207" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-205.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-205.pdf</v>
       </c>
       <c r="J207" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11970,10 +11973,10 @@
       </c>
       <c r="I208" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-206.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-206.pdf</v>
       </c>
       <c r="J208" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12003,10 +12006,10 @@
       </c>
       <c r="I209" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-207.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-207.pdf</v>
       </c>
       <c r="J209" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12036,10 +12039,10 @@
       </c>
       <c r="I210" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-208.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-208.pdf</v>
       </c>
       <c r="J210" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12069,10 +12072,10 @@
       </c>
       <c r="I211" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-209.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-209.pdf</v>
       </c>
       <c r="J211" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12102,10 +12105,10 @@
       </c>
       <c r="I212" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-210.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-210.pdf</v>
       </c>
       <c r="J212" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12135,10 +12138,10 @@
       </c>
       <c r="I213" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-211.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-211.pdf</v>
       </c>
       <c r="J213" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12168,10 +12171,10 @@
       </c>
       <c r="I214" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-212.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-212.pdf</v>
       </c>
       <c r="J214" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12201,10 +12204,10 @@
       </c>
       <c r="I215" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-213.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-213.pdf</v>
       </c>
       <c r="J215" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12234,10 +12237,10 @@
       </c>
       <c r="I216" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-214.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-214.pdf</v>
       </c>
       <c r="J216" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12267,10 +12270,10 @@
       </c>
       <c r="I217" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-215.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-215.pdf</v>
       </c>
       <c r="J217" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12300,10 +12303,10 @@
       </c>
       <c r="I218" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-216.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-216.pdf</v>
       </c>
       <c r="J218" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12333,10 +12336,10 @@
       </c>
       <c r="I219" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-217.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-217.pdf</v>
       </c>
       <c r="J219" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12366,10 +12369,10 @@
       </c>
       <c r="I220" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-218.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-218.pdf</v>
       </c>
       <c r="J220" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12399,10 +12402,10 @@
       </c>
       <c r="I221" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-219.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-219.pdf</v>
       </c>
       <c r="J221" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12432,10 +12435,10 @@
       </c>
       <c r="I222" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-220.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-220.pdf</v>
       </c>
       <c r="J222" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12465,10 +12468,10 @@
       </c>
       <c r="I223" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-221.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-221.pdf</v>
       </c>
       <c r="J223" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12498,10 +12501,10 @@
       </c>
       <c r="I224" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-222.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-222.pdf</v>
       </c>
       <c r="J224" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12531,10 +12534,10 @@
       </c>
       <c r="I225" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-223.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-223.pdf</v>
       </c>
       <c r="J225" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12564,10 +12567,10 @@
       </c>
       <c r="I226" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-224.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-224.pdf</v>
       </c>
       <c r="J226" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12597,10 +12600,10 @@
       </c>
       <c r="I227" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-225.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-225.pdf</v>
       </c>
       <c r="J227" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12630,10 +12633,10 @@
       </c>
       <c r="I228" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-226.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-226.pdf</v>
       </c>
       <c r="J228" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12663,10 +12666,10 @@
       </c>
       <c r="I229" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-227.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-227.pdf</v>
       </c>
       <c r="J229" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12696,10 +12699,10 @@
       </c>
       <c r="I230" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-228.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-228.pdf</v>
       </c>
       <c r="J230" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12755,10 +12758,10 @@
       </c>
       <c r="I232" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-230.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-230.pdf</v>
       </c>
       <c r="J232" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12788,10 +12791,10 @@
       </c>
       <c r="I233" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-231.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-231.pdf</v>
       </c>
       <c r="J233" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12821,10 +12824,10 @@
       </c>
       <c r="I234" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-232.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-232.pdf</v>
       </c>
       <c r="J234" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12854,10 +12857,10 @@
       </c>
       <c r="I235" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-233.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-233.pdf</v>
       </c>
       <c r="J235" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12913,10 +12916,10 @@
       </c>
       <c r="I237" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-235.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-235.pdf</v>
       </c>
       <c r="J237" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12946,10 +12949,10 @@
       </c>
       <c r="I238" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-236.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-236.pdf</v>
       </c>
       <c r="J238" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12979,10 +12982,10 @@
       </c>
       <c r="I239" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-237.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-237.pdf</v>
       </c>
       <c r="J239" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13012,10 +13015,10 @@
       </c>
       <c r="I240" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-238.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-238.pdf</v>
       </c>
       <c r="J240" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13045,10 +13048,10 @@
       </c>
       <c r="I241" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-239.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-239.pdf</v>
       </c>
       <c r="J241" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13078,10 +13081,10 @@
       </c>
       <c r="I242" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-240.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-240.pdf</v>
       </c>
       <c r="J242" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13111,10 +13114,10 @@
       </c>
       <c r="I243" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-241.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-241.pdf</v>
       </c>
       <c r="J243" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13144,10 +13147,10 @@
       </c>
       <c r="I244" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-242.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-242.pdf</v>
       </c>
       <c r="J244" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13177,10 +13180,10 @@
       </c>
       <c r="I245" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-243.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-243.pdf</v>
       </c>
       <c r="J245" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13210,10 +13213,10 @@
       </c>
       <c r="I246" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-244.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-244.pdf</v>
       </c>
       <c r="J246" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13243,10 +13246,10 @@
       </c>
       <c r="I247" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-245.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-245.pdf</v>
       </c>
       <c r="J247" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13276,10 +13279,10 @@
       </c>
       <c r="I248" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-246.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-246.pdf</v>
       </c>
       <c r="J248" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13309,10 +13312,10 @@
       </c>
       <c r="I249" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-247.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-247.pdf</v>
       </c>
       <c r="J249" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13342,10 +13345,10 @@
       </c>
       <c r="I250" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-248.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-248.pdf</v>
       </c>
       <c r="J250" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13375,10 +13378,10 @@
       </c>
       <c r="I251" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-249.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-249.pdf</v>
       </c>
       <c r="J251" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13434,10 +13437,10 @@
       </c>
       <c r="I253" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-251.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-251.pdf</v>
       </c>
       <c r="J253" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13467,10 +13470,10 @@
       </c>
       <c r="I254" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-252.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-252.pdf</v>
       </c>
       <c r="J254" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13500,10 +13503,10 @@
       </c>
       <c r="I255" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-253.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-253.pdf</v>
       </c>
       <c r="J255" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13533,10 +13536,10 @@
       </c>
       <c r="I256" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-254.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-254.pdf</v>
       </c>
       <c r="J256" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13566,10 +13569,10 @@
       </c>
       <c r="I257" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-255.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-255.pdf</v>
       </c>
       <c r="J257" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13599,10 +13602,10 @@
       </c>
       <c r="I258" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-256.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-256.pdf</v>
       </c>
       <c r="J258" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13632,10 +13635,10 @@
       </c>
       <c r="I259" t="str">
         <f t="shared" si="3"/>
-        <v>NA47/NA47-257.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-257.pdf</v>
       </c>
       <c r="J259" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13664,11 +13667,11 @@
         <v>43</v>
       </c>
       <c r="I260" t="str">
-        <f t="shared" ref="I260:I323" si="4">J260 &amp;".pdf"</f>
-        <v>NA47/NA47-258.pdf</v>
+        <f t="shared" ref="I260:I323" si="4">"https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/"&amp;J260 &amp;".pdf"</f>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-258.pdf</v>
       </c>
       <c r="J260" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13698,10 +13701,10 @@
       </c>
       <c r="I261" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-259.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-259.pdf</v>
       </c>
       <c r="J261" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13731,10 +13734,10 @@
       </c>
       <c r="I262" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-260.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-260.pdf</v>
       </c>
       <c r="J262" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13764,10 +13767,10 @@
       </c>
       <c r="I263" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-261.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-261.pdf</v>
       </c>
       <c r="J263" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13797,10 +13800,10 @@
       </c>
       <c r="I264" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-262.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-262.pdf</v>
       </c>
       <c r="J264" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13830,10 +13833,10 @@
       </c>
       <c r="I265" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-263.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-263.pdf</v>
       </c>
       <c r="J265" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13863,10 +13866,10 @@
       </c>
       <c r="I266" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-264.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-264.pdf</v>
       </c>
       <c r="J266" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13896,10 +13899,10 @@
       </c>
       <c r="I267" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-265.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-265.pdf</v>
       </c>
       <c r="J267" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13929,10 +13932,10 @@
       </c>
       <c r="I268" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-266.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-266.pdf</v>
       </c>
       <c r="J268" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13962,10 +13965,10 @@
       </c>
       <c r="I269" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-267.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-267.pdf</v>
       </c>
       <c r="J269" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13995,10 +13998,10 @@
       </c>
       <c r="I270" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-268.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-268.pdf</v>
       </c>
       <c r="J270" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14028,10 +14031,10 @@
       </c>
       <c r="I271" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-269.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-269.pdf</v>
       </c>
       <c r="J271" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14061,10 +14064,10 @@
       </c>
       <c r="I272" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-270.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-270.pdf</v>
       </c>
       <c r="J272" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14094,10 +14097,10 @@
       </c>
       <c r="I273" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-271.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-271.pdf</v>
       </c>
       <c r="J273" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14127,10 +14130,10 @@
       </c>
       <c r="I274" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-272.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-272.pdf</v>
       </c>
       <c r="J274" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14160,10 +14163,10 @@
       </c>
       <c r="I275" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-273.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-273.pdf</v>
       </c>
       <c r="J275" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14193,10 +14196,10 @@
       </c>
       <c r="I276" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-274.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-274.pdf</v>
       </c>
       <c r="J276" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14226,10 +14229,10 @@
       </c>
       <c r="I277" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-275.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-275.pdf</v>
       </c>
       <c r="J277" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14259,10 +14262,10 @@
       </c>
       <c r="I278" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-276.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-276.pdf</v>
       </c>
       <c r="J278" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14292,10 +14295,10 @@
       </c>
       <c r="I279" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-277.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-277.pdf</v>
       </c>
       <c r="J279" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14325,10 +14328,10 @@
       </c>
       <c r="I280" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-278.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-278.pdf</v>
       </c>
       <c r="J280" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14358,10 +14361,10 @@
       </c>
       <c r="I281" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-279.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-279.pdf</v>
       </c>
       <c r="J281" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14391,10 +14394,10 @@
       </c>
       <c r="I282" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-280.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-280.pdf</v>
       </c>
       <c r="J282" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14424,10 +14427,10 @@
       </c>
       <c r="I283" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-281.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-281.pdf</v>
       </c>
       <c r="J283" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14457,10 +14460,10 @@
       </c>
       <c r="I284" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-282.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-282.pdf</v>
       </c>
       <c r="J284" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14490,10 +14493,10 @@
       </c>
       <c r="I285" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-283.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-283.pdf</v>
       </c>
       <c r="J285" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14523,10 +14526,10 @@
       </c>
       <c r="I286" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-284.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-284.pdf</v>
       </c>
       <c r="J286" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14556,10 +14559,10 @@
       </c>
       <c r="I287" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-285.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-285.pdf</v>
       </c>
       <c r="J287" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14589,10 +14592,10 @@
       </c>
       <c r="I288" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-286.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-286.pdf</v>
       </c>
       <c r="J288" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14622,10 +14625,10 @@
       </c>
       <c r="I289" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-287.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-287.pdf</v>
       </c>
       <c r="J289" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14655,10 +14658,10 @@
       </c>
       <c r="I290" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-288.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-288.pdf</v>
       </c>
       <c r="J290" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14688,10 +14691,10 @@
       </c>
       <c r="I291" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-289.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-289.pdf</v>
       </c>
       <c r="J291" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14721,10 +14724,10 @@
       </c>
       <c r="I292" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-290.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-290.pdf</v>
       </c>
       <c r="J292" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14754,10 +14757,10 @@
       </c>
       <c r="I293" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-291.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-291.pdf</v>
       </c>
       <c r="J293" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14787,10 +14790,10 @@
       </c>
       <c r="I294" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-292.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-292.pdf</v>
       </c>
       <c r="J294" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14820,10 +14823,10 @@
       </c>
       <c r="I295" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-293.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-293.pdf</v>
       </c>
       <c r="J295" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14853,10 +14856,10 @@
       </c>
       <c r="I296" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-294.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-294.pdf</v>
       </c>
       <c r="J296" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14886,10 +14889,10 @@
       </c>
       <c r="I297" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-295.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-295.pdf</v>
       </c>
       <c r="J297" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14919,10 +14922,10 @@
       </c>
       <c r="I298" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-296.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-296.pdf</v>
       </c>
       <c r="J298" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14952,10 +14955,10 @@
       </c>
       <c r="I299" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-297.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-297.pdf</v>
       </c>
       <c r="J299" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14985,10 +14988,10 @@
       </c>
       <c r="I300" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-298.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-298.pdf</v>
       </c>
       <c r="J300" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15018,10 +15021,10 @@
       </c>
       <c r="I301" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-299.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-299.pdf</v>
       </c>
       <c r="J301" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15051,10 +15054,10 @@
       </c>
       <c r="I302" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-300.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-300.pdf</v>
       </c>
       <c r="J302" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15084,10 +15087,10 @@
       </c>
       <c r="I303" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-301.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-301.pdf</v>
       </c>
       <c r="J303" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15117,10 +15120,10 @@
       </c>
       <c r="I304" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-302.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-302.pdf</v>
       </c>
       <c r="J304" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15150,10 +15153,10 @@
       </c>
       <c r="I305" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-303.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-303.pdf</v>
       </c>
       <c r="J305" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15183,10 +15186,10 @@
       </c>
       <c r="I306" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-304.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-304.pdf</v>
       </c>
       <c r="J306" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15216,10 +15219,10 @@
       </c>
       <c r="I307" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-305.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-305.pdf</v>
       </c>
       <c r="J307" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15249,10 +15252,10 @@
       </c>
       <c r="I308" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-306.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-306.pdf</v>
       </c>
       <c r="J308" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15282,10 +15285,10 @@
       </c>
       <c r="I309" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-307.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-307.pdf</v>
       </c>
       <c r="J309" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15315,10 +15318,10 @@
       </c>
       <c r="I310" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-308.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-308.pdf</v>
       </c>
       <c r="J310" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15348,10 +15351,10 @@
       </c>
       <c r="I311" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-309.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-309.pdf</v>
       </c>
       <c r="J311" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15381,10 +15384,10 @@
       </c>
       <c r="I312" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-310.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-310.pdf</v>
       </c>
       <c r="J312" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15414,10 +15417,10 @@
       </c>
       <c r="I313" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-311.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-311.pdf</v>
       </c>
       <c r="J313" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15447,10 +15450,10 @@
       </c>
       <c r="I314" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-312.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-312.pdf</v>
       </c>
       <c r="J314" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15480,10 +15483,10 @@
       </c>
       <c r="I315" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-313.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-313.pdf</v>
       </c>
       <c r="J315" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15513,10 +15516,10 @@
       </c>
       <c r="I316" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-314.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-314.pdf</v>
       </c>
       <c r="J316" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15546,10 +15549,10 @@
       </c>
       <c r="I317" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-315.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-315.pdf</v>
       </c>
       <c r="J317" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15579,10 +15582,10 @@
       </c>
       <c r="I318" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-316.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-316.pdf</v>
       </c>
       <c r="J318" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15612,10 +15615,10 @@
       </c>
       <c r="I319" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-317.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-317.pdf</v>
       </c>
       <c r="J319" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15645,10 +15648,10 @@
       </c>
       <c r="I320" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-318.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-318.pdf</v>
       </c>
       <c r="J320" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15678,10 +15681,10 @@
       </c>
       <c r="I321" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-319.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-319.pdf</v>
       </c>
       <c r="J321" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15711,10 +15714,10 @@
       </c>
       <c r="I322" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-320.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-320.pdf</v>
       </c>
       <c r="J322" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15744,10 +15747,10 @@
       </c>
       <c r="I323" t="str">
         <f t="shared" si="4"/>
-        <v>NA47/NA47-321.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-321.pdf</v>
       </c>
       <c r="J323" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15776,11 +15779,11 @@
         <v>14</v>
       </c>
       <c r="I324" t="str">
-        <f t="shared" ref="I324:I387" si="5">J324 &amp;".pdf"</f>
-        <v>NA47/NA47-322.pdf</v>
+        <f t="shared" ref="I324:I387" si="5">"https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/"&amp;J324 &amp;".pdf"</f>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-322.pdf</v>
       </c>
       <c r="J324" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15810,10 +15813,10 @@
       </c>
       <c r="I325" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-323.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-323.pdf</v>
       </c>
       <c r="J325" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15843,10 +15846,10 @@
       </c>
       <c r="I326" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-324.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-324.pdf</v>
       </c>
       <c r="J326" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15876,10 +15879,10 @@
       </c>
       <c r="I327" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-325.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-325.pdf</v>
       </c>
       <c r="J327" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15909,10 +15912,10 @@
       </c>
       <c r="I328" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-326.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-326.pdf</v>
       </c>
       <c r="J328" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15942,10 +15945,10 @@
       </c>
       <c r="I329" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-327.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-327.pdf</v>
       </c>
       <c r="J329" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15975,10 +15978,10 @@
       </c>
       <c r="I330" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-328.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-328.pdf</v>
       </c>
       <c r="J330" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16008,10 +16011,10 @@
       </c>
       <c r="I331" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-329.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-329.pdf</v>
       </c>
       <c r="J331" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="332" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16041,10 +16044,10 @@
       </c>
       <c r="I332" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-330.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-330.pdf</v>
       </c>
       <c r="J332" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16074,10 +16077,10 @@
       </c>
       <c r="I333" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-331.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-331.pdf</v>
       </c>
       <c r="J333" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16107,10 +16110,10 @@
       </c>
       <c r="I334" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-332.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-332.pdf</v>
       </c>
       <c r="J334" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16140,10 +16143,10 @@
       </c>
       <c r="I335" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-333.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-333.pdf</v>
       </c>
       <c r="J335" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16173,10 +16176,10 @@
       </c>
       <c r="I336" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-334.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-334.pdf</v>
       </c>
       <c r="J336" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16206,10 +16209,10 @@
       </c>
       <c r="I337" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-335.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-335.pdf</v>
       </c>
       <c r="J337" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16239,10 +16242,10 @@
       </c>
       <c r="I338" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-336.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-336.pdf</v>
       </c>
       <c r="J338" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16272,10 +16275,10 @@
       </c>
       <c r="I339" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-337.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-337.pdf</v>
       </c>
       <c r="J339" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16305,10 +16308,10 @@
       </c>
       <c r="I340" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-338.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-338.pdf</v>
       </c>
       <c r="J340" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16338,10 +16341,10 @@
       </c>
       <c r="I341" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-339.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-339.pdf</v>
       </c>
       <c r="J341" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16371,10 +16374,10 @@
       </c>
       <c r="I342" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-340.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-340.pdf</v>
       </c>
       <c r="J342" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="343" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16404,10 +16407,10 @@
       </c>
       <c r="I343" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-341.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-341.pdf</v>
       </c>
       <c r="J343" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16437,10 +16440,10 @@
       </c>
       <c r="I344" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-342.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-342.pdf</v>
       </c>
       <c r="J344" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16470,10 +16473,10 @@
       </c>
       <c r="I345" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-343.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-343.pdf</v>
       </c>
       <c r="J345" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16503,10 +16506,10 @@
       </c>
       <c r="I346" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-344.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-344.pdf</v>
       </c>
       <c r="J346" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16536,10 +16539,10 @@
       </c>
       <c r="I347" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-345.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-345.pdf</v>
       </c>
       <c r="J347" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16569,10 +16572,10 @@
       </c>
       <c r="I348" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-346.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-346.pdf</v>
       </c>
       <c r="J348" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="349" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16602,10 +16605,10 @@
       </c>
       <c r="I349" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-347.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-347.pdf</v>
       </c>
       <c r="J349" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16635,10 +16638,10 @@
       </c>
       <c r="I350" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-348.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-348.pdf</v>
       </c>
       <c r="J350" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16668,10 +16671,10 @@
       </c>
       <c r="I351" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-349.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-349.pdf</v>
       </c>
       <c r="J351" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16701,10 +16704,10 @@
       </c>
       <c r="I352" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-350.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-350.pdf</v>
       </c>
       <c r="J352" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="353" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16734,10 +16737,10 @@
       </c>
       <c r="I353" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-351.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-351.pdf</v>
       </c>
       <c r="J353" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="354" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16767,10 +16770,10 @@
       </c>
       <c r="I354" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-352.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-352.pdf</v>
       </c>
       <c r="J354" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="355" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16800,10 +16803,10 @@
       </c>
       <c r="I355" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-353.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-353.pdf</v>
       </c>
       <c r="J355" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="356" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16833,10 +16836,10 @@
       </c>
       <c r="I356" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-354.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-354.pdf</v>
       </c>
       <c r="J356" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="357" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16866,10 +16869,10 @@
       </c>
       <c r="I357" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-355.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-355.pdf</v>
       </c>
       <c r="J357" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="358" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16899,10 +16902,10 @@
       </c>
       <c r="I358" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-356.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-356.pdf</v>
       </c>
       <c r="J358" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="359" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16932,10 +16935,10 @@
       </c>
       <c r="I359" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-357.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-357.pdf</v>
       </c>
       <c r="J359" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16965,10 +16968,10 @@
       </c>
       <c r="I360" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-358.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-358.pdf</v>
       </c>
       <c r="J360" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="361" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16998,10 +17001,10 @@
       </c>
       <c r="I361" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-359.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-359.pdf</v>
       </c>
       <c r="J361" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="362" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17031,10 +17034,10 @@
       </c>
       <c r="I362" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-360.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-360.pdf</v>
       </c>
       <c r="J362" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="363" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17064,10 +17067,10 @@
       </c>
       <c r="I363" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-361.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-361.pdf</v>
       </c>
       <c r="J363" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="364" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17097,10 +17100,10 @@
       </c>
       <c r="I364" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-362.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-362.pdf</v>
       </c>
       <c r="J364" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="365" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17130,10 +17133,10 @@
       </c>
       <c r="I365" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-363.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-363.pdf</v>
       </c>
       <c r="J365" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="366" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17163,10 +17166,10 @@
       </c>
       <c r="I366" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-364.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-364.pdf</v>
       </c>
       <c r="J366" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="367" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17196,10 +17199,10 @@
       </c>
       <c r="I367" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-365.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-365.pdf</v>
       </c>
       <c r="J367" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="368" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17229,10 +17232,10 @@
       </c>
       <c r="I368" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-366.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-366.pdf</v>
       </c>
       <c r="J368" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="369" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17262,10 +17265,10 @@
       </c>
       <c r="I369" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-367.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-367.pdf</v>
       </c>
       <c r="J369" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="370" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17295,10 +17298,10 @@
       </c>
       <c r="I370" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-368.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-368.pdf</v>
       </c>
       <c r="J370" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="371" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17328,10 +17331,10 @@
       </c>
       <c r="I371" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-369.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-369.pdf</v>
       </c>
       <c r="J371" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="372" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17361,10 +17364,10 @@
       </c>
       <c r="I372" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-370.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-370.pdf</v>
       </c>
       <c r="J372" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17394,10 +17397,10 @@
       </c>
       <c r="I373" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-371.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-371.pdf</v>
       </c>
       <c r="J373" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="374" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17427,10 +17430,10 @@
       </c>
       <c r="I374" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-372.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-372.pdf</v>
       </c>
       <c r="J374" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17460,10 +17463,10 @@
       </c>
       <c r="I375" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-373.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-373.pdf</v>
       </c>
       <c r="J375" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17493,10 +17496,10 @@
       </c>
       <c r="I376" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-374.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-374.pdf</v>
       </c>
       <c r="J376" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="377" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17526,10 +17529,10 @@
       </c>
       <c r="I377" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-375.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-375.pdf</v>
       </c>
       <c r="J377" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="378" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17559,10 +17562,10 @@
       </c>
       <c r="I378" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-376.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-376.pdf</v>
       </c>
       <c r="J378" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="379" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17592,10 +17595,10 @@
       </c>
       <c r="I379" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-377.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-377.pdf</v>
       </c>
       <c r="J379" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="380" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17625,10 +17628,10 @@
       </c>
       <c r="I380" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-378.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-378.pdf</v>
       </c>
       <c r="J380" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="381" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17658,10 +17661,10 @@
       </c>
       <c r="I381" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-379.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-379.pdf</v>
       </c>
       <c r="J381" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17691,10 +17694,10 @@
       </c>
       <c r="I382" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-380.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-380.pdf</v>
       </c>
       <c r="J382" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17724,10 +17727,10 @@
       </c>
       <c r="I383" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-381.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-381.pdf</v>
       </c>
       <c r="J383" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="384" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17757,10 +17760,10 @@
       </c>
       <c r="I384" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-382.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-382.pdf</v>
       </c>
       <c r="J384" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="385" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17790,10 +17793,10 @@
       </c>
       <c r="I385" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-383.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-383.pdf</v>
       </c>
       <c r="J385" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="386" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17823,10 +17826,10 @@
       </c>
       <c r="I386" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-384.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-384.pdf</v>
       </c>
       <c r="J386" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="387" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17856,10 +17859,10 @@
       </c>
       <c r="I387" t="str">
         <f t="shared" si="5"/>
-        <v>NA47/NA47-385.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-385.pdf</v>
       </c>
       <c r="J387" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="388" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17888,11 +17891,11 @@
         <v>4</v>
       </c>
       <c r="I388" t="str">
-        <f t="shared" ref="I388:I389" si="6">J388 &amp;".pdf"</f>
-        <v>NA47/NA47-386.pdf</v>
+        <f t="shared" ref="I388:I389" si="6">"https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/"&amp;J388 &amp;".pdf"</f>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-386.pdf</v>
       </c>
       <c r="J388" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="389" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17922,10 +17925,10 @@
       </c>
       <c r="I389" t="str">
         <f t="shared" si="6"/>
-        <v>NA47/NA47-387.pdf</v>
+        <v>https://form45sonaws2024.s3.ap-southeast-1.amazonaws.com/NA/NA47/NA47-387.pdf</v>
       </c>
       <c r="J389" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
